--- a/genshin/437354810361844370_2020-09-21_14-00-02.xlsx
+++ b/genshin/437354810361844370_2020-09-21_14-00-02.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2020-12-12 02:36:10</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44177.10844907408</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -618,10 +632,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2020-11-12 08:06:03</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44147.33753472222</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -689,10 +701,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2020-09-24 02:53:23</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44098.1204050926</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -756,10 +766,8 @@
           <t>3515918246</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2020-09-24 00:48:08</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44098.03342592593</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -823,10 +831,8 @@
           <t>3517391154</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2020-09-23 22:06:44</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44097.92134259259</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -894,10 +900,8 @@
           <t>3517391154</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2020-09-23 21:57:08</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44097.91467592592</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -965,10 +969,8 @@
           <t>3517391154</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2020-09-23 21:35:17</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44097.89950231482</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1044,10 +1046,8 @@
           <t>3522746097</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2020-09-23 20:19:12</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44097.84666666666</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1115,10 +1115,8 @@
           <t>3522734834</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2020-09-23 20:18:05</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44097.8458912037</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1186,10 +1184,8 @@
           <t>3522735976</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2020-09-23 20:16:35</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44097.84484953704</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1257,10 +1253,8 @@
           <t>3517391154</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2020-09-23 20:12:49</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44097.8422337963</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1328,10 +1322,8 @@
           <t>3515475876</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2020-09-23 18:55:08</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44097.78828703704</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1395,10 +1387,8 @@
           <t>3515475876</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2020-09-23 17:52:40</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44097.74490740741</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1470,10 +1460,8 @@
           <t>3522106275</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2020-09-23 17:08:55</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44097.71452546296</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1549,10 +1537,8 @@
           <t>3515525703</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2020-09-23 17:00:25</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44097.70862268518</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1624,10 +1610,8 @@
           <t>3515668524</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2020-09-23 16:55:56</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44097.70550925926</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1695,10 +1679,8 @@
           <t>3517381946</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2020-09-23 12:15:00</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44097.51041666666</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1766,10 +1748,8 @@
           <t>3517444512</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2020-09-23 09:38:45</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44097.40190972222</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1841,10 +1821,8 @@
           <t>3515525703</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2020-09-23 07:20:34</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44097.30594907407</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1908,10 +1886,8 @@
           <t>3515525703</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2020-09-23 07:18:37</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44097.30459490741</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1975,10 +1951,8 @@
           <t>3515525703</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2020-09-23 05:18:09</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44097.2209375</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2050,10 +2024,8 @@
           <t>3517444512</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2020-09-23 01:06:02</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44097.04585648148</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2129,10 +2101,8 @@
           <t>3517444512</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2020-09-22 23:53:00</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44096.99513888889</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2204,10 +2174,8 @@
           <t>3517409691</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2020-09-22 20:01:59</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44096.83471064815</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2275,10 +2243,8 @@
           <t>3517475110</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2020-09-22 19:28:34</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44096.81150462963</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2342,10 +2308,8 @@
           <t>3515466229</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2020-09-22 18:22:29</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44096.76561342592</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2417,10 +2381,8 @@
           <t>3515668524</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2020-09-22 18:03:54</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44096.75270833333</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2496,10 +2458,8 @@
           <t>3518876033</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2020-09-22 16:53:58</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44096.70414351852</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2567,10 +2527,8 @@
           <t>3517444512</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2020-09-22 16:25:30</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44096.684375</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2646,10 +2604,8 @@
           <t>3515525703</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2020-09-22 15:30:05</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44096.64589120371</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2713,10 +2669,8 @@
           <t>3515525703</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2020-09-22 15:17:53</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44096.63741898148</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2788,10 +2742,8 @@
           <t>3518654038</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2020-09-22 15:14:02</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44096.63474537037</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2859,10 +2811,8 @@
           <t>3518500479</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:49:40</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44096.61782407408</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2938,10 +2888,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:16:24</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44096.59472222222</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3011,10 +2959,8 @@
           <t>3515597008</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2020-09-22 14:09:53</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44096.59019675926</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3082,10 +3028,8 @@
           <t>3518500479</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2020-09-22 13:54:51</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44096.57975694445</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3153,10 +3097,8 @@
           <t>3515597008</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2020-09-22 13:33:03</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44096.56461805556</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3232,10 +3174,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2020-09-22 12:52:31</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44096.53646990741</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3299,10 +3239,8 @@
           <t>3515639412</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2020-09-22 12:51:18</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44096.535625</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3378,10 +3316,8 @@
           <t>3515639412</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2020-09-22 12:50:05</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44096.5347800926</v>
       </c>
       <c r="I41" t="n">
         <v>1</v>
@@ -3457,10 +3393,8 @@
           <t>3515639412</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2020-09-22 12:44:05</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44096.53061342592</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3524,10 +3458,8 @@
           <t>3515639412</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2020-09-22 12:34:48</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44096.52416666667</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3603,10 +3535,8 @@
           <t>3515639412</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2020-09-22 12:32:27</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44096.52253472222</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3682,10 +3612,8 @@
           <t>3515639412</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2020-09-22 12:31:08</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44096.52162037037</v>
       </c>
       <c r="I45" t="n">
         <v>1</v>
@@ -3761,10 +3689,8 @@
           <t>3515639412</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2020-09-22 12:29:27</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44096.52045138889</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3840,10 +3766,8 @@
           <t>3515639412</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2020-09-22 12:26:34</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44096.51844907407</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3907,10 +3831,8 @@
           <t>3515639412</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2020-09-22 12:21:24</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44096.51486111111</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3974,10 +3896,8 @@
           <t>3518228025</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2020-09-22 12:20:29</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44096.51422453704</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4041,10 +3961,8 @@
           <t>3515639412</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2020-09-22 12:20:16</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44096.51407407408</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4120,10 +4038,8 @@
           <t>3515639412</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2020-09-22 12:13:14</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44096.50918981482</v>
       </c>
       <c r="I51" t="n">
         <v>1</v>
@@ -4199,10 +4115,8 @@
           <t>3515639412</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2020-09-22 12:12:19</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44096.50855324074</v>
       </c>
       <c r="I52" t="n">
         <v>1</v>
@@ -4278,10 +4192,8 @@
           <t>3515639412</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2020-09-22 12:10:32</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44096.50731481481</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4357,10 +4269,8 @@
           <t>3517391154</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2020-09-22 12:10:16</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44096.50712962963</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4436,10 +4346,8 @@
           <t>3515639412</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2020-09-22 12:09:18</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44096.50645833334</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4503,10 +4411,8 @@
           <t>3515928330</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2020-09-22 12:08:43</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44096.50605324074</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4566,10 +4472,8 @@
           <t>3515639412</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2020-09-22 12:06:34</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44096.50456018518</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4645,10 +4549,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2020-09-22 12:04:11</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44096.5029050926</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4716,10 +4618,8 @@
           <t>3515639412</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2020-09-22 12:02:14</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44096.50155092592</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4783,10 +4683,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2020-09-22 12:01:10</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44096.50081018519</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4854,10 +4752,8 @@
           <t>3515639412</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2020-09-22 11:57:53</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44096.49853009259</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4933,10 +4829,8 @@
           <t>3515639412</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2020-09-22 11:55:06</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44096.49659722222</v>
       </c>
       <c r="I62" t="n">
         <v>1</v>
@@ -5012,10 +4906,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2020-09-22 11:54:45</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44096.49635416667</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5087,10 +4979,8 @@
           <t>3515639412</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2020-09-22 11:51:55</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44096.49438657407</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5154,10 +5044,8 @@
           <t>3518137386</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2020-09-22 11:47:45</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44096.49149305555</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5230,10 +5118,8 @@
           <t>3518133085</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2020-09-22 11:45:39</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44096.49003472222</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5305,10 +5191,8 @@
           <t>3515475876</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2020-09-22 11:44:00</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44096.48888888889</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5372,10 +5256,8 @@
           <t>3518107326</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2020-09-22 11:40:57</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44096.48677083333</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5451,10 +5333,8 @@
           <t>3515639412</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2020-09-22 11:38:24</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44096.485</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5530,10 +5410,8 @@
           <t>3518117478</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2020-09-22 11:38:13</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44096.48487268519</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5605,10 +5483,8 @@
           <t>3518109719</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2020-09-22 11:38:00</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44096.48472222222</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5680,10 +5556,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2020-09-22 11:37:16</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44096.48421296296</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5755,10 +5629,8 @@
           <t>3515928330</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2020-09-22 11:35:32</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44096.48300925926</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5834,10 +5706,8 @@
           <t>3518107326</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2020-09-22 11:34:48</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44096.4825</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5905,10 +5775,8 @@
           <t>3515668524</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2020-09-22 11:34:02</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44096.48196759259</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5984,10 +5852,8 @@
           <t>3515639412</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2020-09-22 11:32:07</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44096.48063657407</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6051,10 +5917,8 @@
           <t>3515668524</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2020-09-22 11:30:52</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44096.47976851852</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6130,10 +5994,8 @@
           <t>3515668524</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2020-09-22 11:30:25</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44096.47945601852</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6209,10 +6071,8 @@
           <t>3515668524</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2020-09-22 11:30:13</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44096.47931712963</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6288,10 +6148,8 @@
           <t>3515668524</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2020-09-22 11:29:48</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44096.47902777778</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6367,10 +6225,8 @@
           <t>3515668524</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2020-09-22 11:28:07</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44096.47785879629</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6446,10 +6302,8 @@
           <t>3515668524</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2020-09-22 11:26:37</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44096.47681712963</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6525,10 +6379,8 @@
           <t>3517887908</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2020-09-22 11:25:21</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44096.4759375</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6604,10 +6456,8 @@
           <t>3515639412</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2020-09-22 11:24:43</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44096.47549768518</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6683,10 +6533,8 @@
           <t>3515928330</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2020-09-22 11:23:11</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44096.47443287037</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6746,10 +6594,8 @@
           <t>3515639412</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2020-09-22 11:22:55</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44096.47424768518</v>
       </c>
       <c r="I86" t="n">
         <v>1</v>
@@ -6825,10 +6671,8 @@
           <t>3515639412</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2020-09-22 11:15:00</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44096.46875</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6892,10 +6736,8 @@
           <t>3515639412</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2020-09-22 11:13:41</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44096.46783564815</v>
       </c>
       <c r="I88" t="n">
         <v>1</v>
@@ -6971,10 +6813,8 @@
           <t>3516191653</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2020-09-22 11:10:59</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44096.46596064815</v>
       </c>
       <c r="I89" t="n">
         <v>1</v>
@@ -7042,10 +6882,8 @@
           <t>3515639412</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2020-09-22 11:08:47</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44096.46443287037</v>
       </c>
       <c r="I90" t="n">
         <v>2</v>
@@ -7121,10 +6959,8 @@
           <t>3517466670</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2020-09-22 11:08:37</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44096.46431712963</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7192,10 +7028,8 @@
           <t>3518045521</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2020-09-22 11:05:36</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44096.46222222222</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7263,10 +7097,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2020-09-22 11:04:39</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44096.4615625</v>
       </c>
       <c r="I93" t="n">
         <v>1</v>
@@ -7342,10 +7174,8 @@
           <t>3515639412</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2020-09-22 11:03:22</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44096.4606712963</v>
       </c>
       <c r="I94" t="n">
         <v>2</v>
@@ -7421,10 +7251,8 @@
           <t>3518032883</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2020-09-22 11:01:57</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44096.4596875</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7488,10 +7316,8 @@
           <t>3515473097</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2020-09-22 10:59:19</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44096.4578587963</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7563,10 +7389,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2020-09-22 10:57:27</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44096.4565625</v>
       </c>
       <c r="I97" t="n">
         <v>1</v>
@@ -7630,10 +7454,8 @@
           <t>3515639412</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2020-09-22 10:55:17</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44096.45505787037</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7697,10 +7519,8 @@
           <t>3515639412</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2020-09-22 10:47:40</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44096.44976851852</v>
       </c>
       <c r="I99" t="n">
         <v>2</v>
@@ -7776,10 +7596,8 @@
           <t>3515639412</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2020-09-22 10:34:42</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44096.44076388889</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7843,10 +7661,8 @@
           <t>3515466229</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2020-09-22 10:34:17</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44096.44047453703</v>
       </c>
       <c r="I101" t="n">
         <v>1</v>
@@ -7910,10 +7726,8 @@
           <t>3517403286</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2020-09-22 10:22:06</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44096.43201388889</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7981,10 +7795,8 @@
           <t>3517403286</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2020-09-22 10:17:30</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44096.42881944445</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -8053,10 +7865,8 @@
           <t>3517403286</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2020-09-22 10:14:31</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44096.42674768518</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8124,10 +7934,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2020-09-22 10:08:07</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44096.42230324074</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8199,10 +8007,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2020-09-22 10:08:04</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44096.42226851852</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8273,10 +8079,8 @@
           <t>3515639412</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2020-09-22 10:07:14</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44096.42168981482</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8352,10 +8156,8 @@
           <t>3515639412</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2020-09-22 10:04:52</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44096.4200462963</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8431,10 +8233,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2020-09-22 10:02:44</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44096.41856481481</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8506,10 +8306,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2020-09-22 10:01:58</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44096.4180324074</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8577,10 +8375,8 @@
           <t>3515475876</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2020-09-22 10:01:50</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44096.41793981481</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8651,10 +8447,8 @@
           <t>3517887908</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2020-09-22 09:59:43</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44096.41646990741</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8722,10 +8516,8 @@
           <t>3517907954</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2020-09-22 09:57:00</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44096.41458333333</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8801,10 +8593,8 @@
           <t>3517887908</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2020-09-22 09:48:19</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44096.40855324074</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8880,10 +8670,8 @@
           <t>3515475876</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2020-09-22 09:47:04</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44096.40768518519</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8959,10 +8747,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2020-09-22 09:45:48</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44096.40680555555</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -9038,10 +8824,8 @@
           <t>3517684494</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2020-09-22 09:45:32</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44096.40662037037</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -9113,10 +8897,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2020-09-22 09:31:14</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44096.39668981481</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9180,10 +8962,8 @@
           <t>3517820586</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2020-09-22 09:06:02</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44096.37918981481</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9255,10 +9035,8 @@
           <t>3515639412</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2020-09-22 09:03:46</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44096.37761574074</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9322,10 +9100,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2020-09-22 09:03:13</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44096.37723379629</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9397,10 +9173,8 @@
           <t>3517466670</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2020-09-22 08:59:04</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44096.37435185185</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9464,10 +9238,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2020-09-22 08:58:44</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44096.37412037037</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9539,10 +9311,8 @@
           <t>3517803680</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2020-09-22 08:57:45</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44096.3734375</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9606,10 +9376,8 @@
           <t>3517802816</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2020-09-22 08:56:10</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44096.37233796297</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9673,10 +9441,8 @@
           <t>3517793327</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2020-09-22 08:53:03</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44096.37017361111</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9740,10 +9506,8 @@
           <t>3517800369</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2020-09-22 08:51:46</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44096.36928240741</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9807,10 +9571,8 @@
           <t>3515612868</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2020-09-22 08:49:23</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44096.36762731482</v>
       </c>
       <c r="I128" t="n">
         <v>1</v>
@@ -9874,10 +9636,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2020-09-22 08:43:59</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44096.36387731481</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9941,10 +9701,8 @@
           <t>3517710131</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2020-09-22 08:42:07</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44096.36258101852</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -10013,10 +9771,8 @@
           <t>3517403286</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2020-09-22 08:41:48</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44096.36236111111</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -10085,10 +9841,8 @@
           <t>3515475876</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2020-09-22 08:28:29</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44096.35311342592</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10152,10 +9906,8 @@
           <t>3515412359</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2020-09-22 08:14:23</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44096.34332175926</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10219,10 +9971,8 @@
           <t>3517677523</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2020-09-22 08:07:03</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44096.33822916666</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10298,10 +10048,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2020-09-22 08:02:27</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44096.33503472222</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10365,10 +10113,8 @@
           <t>3515640893</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2020-09-22 07:55:46</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44096.33039351852</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10444,10 +10190,8 @@
           <t>3517710131</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2020-09-22 07:51:14</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44096.32724537037</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10511,10 +10255,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2020-09-22 07:49:47</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44096.32623842593</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10582,10 +10324,8 @@
           <t>3517697911</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2020-09-22 07:46:21</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44096.32385416667</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10649,10 +10389,8 @@
           <t>3517684494</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2020-09-22 07:38:20</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44096.31828703704</v>
       </c>
       <c r="I140" t="n">
         <v>1</v>
@@ -10716,10 +10454,8 @@
           <t>3515473097</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2020-09-22 07:30:58</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44096.31317129629</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10783,10 +10519,8 @@
           <t>3517677523</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2020-09-22 07:25:29</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44096.30936342593</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10850,10 +10584,8 @@
           <t>3517676464</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2020-09-22 07:22:36</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44096.30736111111</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10917,10 +10649,8 @@
           <t>3515525703</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2020-09-22 07:10:00</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44096.29861111111</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -10984,10 +10714,8 @@
           <t>3517650407</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2020-09-22 06:57:58</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44096.29025462963</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -11063,10 +10791,8 @@
           <t>3515640893</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2020-09-22 06:50:48</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44096.28527777778</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11130,10 +10856,8 @@
           <t>3516191653</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2020-09-22 06:39:26</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44096.27738425926</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11197,10 +10921,8 @@
           <t>3515639412</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2020-09-22 06:32:14</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44096.27238425926</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11276,10 +10998,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2020-09-22 06:26:58</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44096.26872685185</v>
       </c>
       <c r="I149" t="n">
         <v>1</v>
@@ -11355,10 +11075,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2020-09-22 05:52:31</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44096.24480324074</v>
       </c>
       <c r="I150" t="n">
         <v>1</v>
@@ -11430,10 +11148,8 @@
           <t>3515713661</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2020-09-22 02:49:32</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44096.11773148148</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11505,10 +11221,8 @@
           <t>3515713661</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2020-09-22 02:48:21</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44096.11690972222</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11580,10 +11294,8 @@
           <t>3515713661</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2020-09-22 02:45:10</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44096.11469907407</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11655,10 +11367,8 @@
           <t>3517424082</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2020-09-22 02:22:35</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44096.09901620371</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11734,10 +11444,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2020-09-22 02:21:30</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44096.09826388889</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11801,10 +11509,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2020-09-22 02:17:15</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44096.0953125</v>
       </c>
       <c r="I156" t="n">
         <v>1</v>
@@ -11876,10 +11582,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2020-09-22 02:12:10</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44096.09178240741</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11955,10 +11659,8 @@
           <t>3515713661</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2020-09-22 02:03:53</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44096.08603009259</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -12026,10 +11728,8 @@
           <t>3515482969</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2020-09-22 02:03:24</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44096.08569444445</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -12097,10 +11797,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2020-09-22 02:01:48</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44096.08458333334</v>
       </c>
       <c r="I160" t="n">
         <v>4</v>
@@ -12168,10 +11866,8 @@
           <t>3517486868</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2020-09-22 01:58:39</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44096.08239583333</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12239,10 +11935,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2020-09-22 01:54:24</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44096.07944444445</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12310,10 +12004,8 @@
           <t>3515412359</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2020-09-22 01:42:20</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44096.07106481482</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12390,10 +12082,8 @@
           <t>3517475110</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2020-09-22 01:42:03</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44096.07086805555</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12457,10 +12147,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2020-09-22 01:41:33</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44096.07052083333</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12537,10 +12225,8 @@
           <t>3517466670</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2020-09-22 01:40:57</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44096.07010416667</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12604,10 +12290,8 @@
           <t>3517398578</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2020-09-22 01:40:23</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44096.06971064815</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12679,10 +12363,8 @@
           <t>3517398578</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2020-09-22 01:35:06</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44096.06604166667</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12750,10 +12432,8 @@
           <t>3517398578</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2020-09-22 01:34:02</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44096.06530092593</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12821,10 +12501,8 @@
           <t>3517460763</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2020-09-22 01:32:46</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44096.06442129629</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12900,10 +12578,8 @@
           <t>3517452751</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2020-09-22 01:32:41</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44096.06436342592</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -12971,10 +12647,8 @@
           <t>3517398578</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2020-09-22 01:32:10</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44096.06400462963</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -13046,10 +12720,8 @@
           <t>3517444512</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2020-09-22 01:27:40</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44096.06087962963</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13125,10 +12797,8 @@
           <t>3515475876</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2020-09-22 01:23:00</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44096.05763888889</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13204,10 +12874,8 @@
           <t>3517424082</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2020-09-22 01:15:58</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44096.05275462963</v>
       </c>
       <c r="I175" t="n">
         <v>1</v>
@@ -13275,10 +12943,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2020-09-22 01:10:21</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44096.04885416666</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13356,10 +13022,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2020-09-22 01:09:21</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44096.04815972222</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13427,10 +13091,8 @@
           <t>3517409691</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2020-09-22 01:08:25</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44096.04751157408</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13498,10 +13160,8 @@
           <t>3517408111</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2020-09-22 01:05:46</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44096.0456712963</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13569,10 +13229,8 @@
           <t>3517407209</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2020-09-22 01:04:23</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44096.04471064815</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13640,10 +13298,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2020-09-22 01:03:34</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44096.04414351852</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13707,10 +13363,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2020-09-22 01:01:28</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44096.04268518519</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13778,10 +13432,8 @@
           <t>3517403286</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2020-09-22 01:00:17</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44096.04186342593</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13849,10 +13501,8 @@
           <t>3517403278</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2020-09-22 01:00:17</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44096.04186342593</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13928,10 +13578,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2020-09-22 01:00:01</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44096.04167824074</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -14007,10 +13655,8 @@
           <t>3517398578</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2020-09-22 00:59:15</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44096.04114583333</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -14078,10 +13724,8 @@
           <t>3515473097</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2020-09-22 00:58:39</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44096.04072916666</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14157,10 +13801,8 @@
           <t>3517397976</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2020-09-22 00:58:18</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44096.04048611111</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14228,10 +13870,8 @@
           <t>3517397139</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2020-09-22 00:57:02</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44096.03960648148</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14299,10 +13939,8 @@
           <t>3517391154</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2020-09-22 00:55:21</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44096.0384375</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14370,10 +14008,8 @@
           <t>3517395621</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2020-09-22 00:54:39</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44096.03795138889</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14441,10 +14077,8 @@
           <t>3517390440</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2020-09-22 00:54:18</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44096.03770833334</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14520,10 +14154,8 @@
           <t>3517388457</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2020-09-22 00:53:29</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44096.03714120371</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14591,10 +14223,8 @@
           <t>3517379637</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2020-09-22 00:53:05</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44096.03686342593</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14662,10 +14292,8 @@
           <t>3517383789</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2020-09-22 00:51:57</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44096.03607638889</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14733,10 +14361,8 @@
           <t>3517383581</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2020-09-22 00:51:40</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44096.03587962963</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14804,10 +14430,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2020-09-22 00:51:06</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44096.03548611111</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14875,10 +14499,8 @@
           <t>3517377423</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2020-09-22 00:49:56</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44096.03467592593</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -14946,10 +14568,8 @@
           <t>3517381946</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2020-09-22 00:49:27</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44096.03434027778</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -15017,10 +14637,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2020-09-22 00:44:19</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44096.03077546296</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -15084,10 +14702,8 @@
           <t>3517362740</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2020-09-22 00:43:29</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44096.03019675926</v>
       </c>
       <c r="I201" t="n">
         <v>1</v>
@@ -15155,10 +14771,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2020-09-22 00:41:17</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44096.02866898148</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15222,10 +14836,8 @@
           <t>3517347037</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2020-09-22 00:36:28</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44096.02532407407</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15301,10 +14913,8 @@
           <t>3515713661</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2020-09-22 00:34:55</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44096.02424768519</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15380,10 +14990,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2020-09-22 00:31:59</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44096.02221064815</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15451,10 +15059,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2020-09-22 00:31:32</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44096.02189814814</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15526,10 +15132,8 @@
           <t>3515482969</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2020-09-22 00:31:16</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44096.02171296296</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15597,10 +15201,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2020-09-22 00:28:49</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44096.02001157407</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15668,10 +15270,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2020-09-22 00:17:17</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44096.01200231481</v>
       </c>
       <c r="I209" t="n">
         <v>1</v>
@@ -15739,10 +15339,8 @@
           <t>3515713661</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2020-09-22 00:13:42</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44096.00951388889</v>
       </c>
       <c r="I210" t="n">
         <v>1</v>
@@ -15814,10 +15412,8 @@
           <t>3515622876</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2020-09-22 00:13:04</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44096.00907407407</v>
       </c>
       <c r="I211" t="n">
         <v>2</v>
@@ -15889,10 +15485,8 @@
           <t>3517207118</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2020-09-22 00:11:48</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44096.00819444445</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -15956,10 +15550,8 @@
           <t>3515622876</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2020-09-22 00:11:40</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44096.00810185185</v>
       </c>
       <c r="I213" t="n">
         <v>2</v>
@@ -16031,10 +15623,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2020-09-22 00:11:14</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44096.00780092592</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -16102,10 +15692,8 @@
           <t>3517278494</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2020-09-22 00:10:58</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44096.00761574074</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16174,10 +15762,8 @@
           <t>3517126331</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2020-09-22 00:09:44</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44096.00675925926</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16246,10 +15832,8 @@
           <t>3517276687</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2020-09-22 00:09:12</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44096.00638888889</v>
       </c>
       <c r="I217" t="n">
         <v>1</v>
@@ -16325,10 +15909,8 @@
           <t>3516355031</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2020-09-22 00:06:54</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44096.00479166667</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16396,10 +15978,8 @@
           <t>3517259288</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2020-09-22 00:06:50</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44096.00474537037</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16468,10 +16048,8 @@
           <t>3517257475</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2020-09-22 00:05:04</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44096.00351851852</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16539,10 +16117,8 @@
           <t>3517262026</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2020-09-22 00:04:44</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44096.00328703703</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16602,10 +16178,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2020-09-21 23:54:04</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44095.99587962963</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16674,10 +16248,8 @@
           <t>3515713661</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2020-09-21 23:53:53</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44095.99575231481</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16745,10 +16317,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2020-09-21 23:53:40</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44095.99560185185</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16826,10 +16396,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2020-09-21 23:48:41</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44095.9921412037</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16893,10 +16461,8 @@
           <t>3517207118</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2020-09-21 23:47:12</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44095.99111111111</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -16964,10 +16530,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2020-09-21 23:45:51</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44095.99017361111</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -17035,10 +16599,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2020-09-21 23:39:43</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44095.98591435186</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -17102,10 +16664,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2020-09-21 23:34:57</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44095.98260416667</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17181,10 +16741,8 @@
           <t>3517160419</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2020-09-21 23:32:59</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44095.98123842593</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17260,10 +16818,8 @@
           <t>3515624228</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2020-09-21 23:32:30</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44095.98090277778</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17335,10 +16891,8 @@
           <t>3517149751</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2020-09-21 23:32:25</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44095.9808449074</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17406,10 +16960,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2020-09-21 23:32:12</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44095.98069444444</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17481,10 +17033,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2020-09-21 23:30:40</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44095.97962962963</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17548,10 +17098,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2020-09-21 23:28:07</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44095.97785879629</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17623,10 +17171,8 @@
           <t>3517126331</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2020-09-21 23:25:21</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44095.9759375</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17690,10 +17236,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2020-09-21 23:22:23</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44095.97387731481</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17761,10 +17305,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2020-09-21 23:20:34</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44095.97261574074</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17828,10 +17370,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2020-09-21 23:17:24</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44095.97041666666</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -17895,10 +17435,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2020-09-21 23:10:11</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44095.96540509259</v>
       </c>
       <c r="I240" t="n">
         <v>1</v>
@@ -17970,10 +17508,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2020-09-21 23:00:21</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44095.95857638889</v>
       </c>
       <c r="I241" t="n">
         <v>1</v>
@@ -18041,10 +17577,8 @@
           <t>3515482969</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2020-09-21 23:00:06</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44095.95840277777</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -18108,10 +17642,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2020-09-21 22:59:10</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44095.95775462963</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18183,10 +17715,8 @@
           <t>3515597008</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2020-09-21 22:57:48</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44095.95680555556</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18254,10 +17784,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2020-09-21 22:51:28</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44095.95240740741</v>
       </c>
       <c r="I245" t="n">
         <v>7</v>
@@ -18330,10 +17858,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2020-09-21 22:51:12</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44095.95222222222</v>
       </c>
       <c r="I246" t="n">
         <v>8</v>
@@ -18405,10 +17931,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2020-09-21 22:48:15</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44095.95017361111</v>
       </c>
       <c r="I247" t="n">
         <v>1</v>
@@ -18480,10 +18004,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2020-09-21 22:41:27</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44095.94545138889</v>
       </c>
       <c r="I248" t="n">
         <v>6</v>
@@ -18559,10 +18081,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2020-09-21 22:40:43</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44095.94494212963</v>
       </c>
       <c r="I249" t="n">
         <v>3</v>
@@ -18638,10 +18158,8 @@
           <t>3516675017</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2020-09-21 22:40:36</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44095.94486111111</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18705,10 +18223,8 @@
           <t>3516925016</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2020-09-21 22:34:49</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44095.94084490741</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18784,10 +18300,8 @@
           <t>3516921692</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2020-09-21 22:33:28</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44095.93990740741</v>
       </c>
       <c r="I252" t="n">
         <v>1</v>
@@ -18863,10 +18377,8 @@
           <t>3516921433</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2020-09-21 22:33:18</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44095.93979166666</v>
       </c>
       <c r="I253" t="n">
         <v>1</v>
@@ -18942,10 +18454,8 @@
           <t>3516917138</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2020-09-21 22:33:05</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44095.9396412037</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -19022,10 +18532,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2020-09-21 22:32:42</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44095.939375</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -19089,10 +18597,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2020-09-21 22:26:53</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44095.93533564815</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -19152,10 +18658,8 @@
           <t>3516883540</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2020-09-21 22:26:09</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44095.93482638889</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19227,10 +18731,8 @@
           <t>3516890401</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2020-09-21 22:25:14</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44095.93418981481</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19294,10 +18796,8 @@
           <t>3515622876</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2020-09-21 22:23:52</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44095.93324074074</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19361,10 +18861,8 @@
           <t>3515475876</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2020-09-21 22:20:58</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44095.93122685186</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19440,10 +18938,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2020-09-21 22:14:24</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44095.92666666667</v>
       </c>
       <c r="I261" t="n">
         <v>2</v>
@@ -19519,10 +19015,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2020-09-21 22:10:18</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44095.92381944445</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19598,10 +19092,8 @@
           <t>3515622876</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2020-09-21 22:06:33</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44095.92121527778</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19678,10 +19170,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2020-09-21 22:05:27</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44095.92045138889</v>
       </c>
       <c r="I264" t="n">
         <v>1</v>
@@ -19745,10 +19235,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2020-09-21 21:59:58</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44095.91664351852</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19818,10 +19306,8 @@
           <t>3515622876</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2020-09-21 21:52:24</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44095.91138888889</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19897,10 +19383,8 @@
           <t>3515596737</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2020-09-21 21:52:24</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44095.91138888889</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -19972,10 +19456,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2020-09-21 21:51:28</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44095.91074074074</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -20047,10 +19529,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2020-09-21 21:50:24</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44095.91</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -20126,10 +19606,8 @@
           <t>3516390073</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2020-09-21 21:44:17</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44095.90575231481</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -20198,10 +19676,8 @@
           <t>3516378819</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2020-09-21 21:43:59</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44095.90554398148</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -20270,10 +19746,8 @@
           <t>3516342038</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2020-09-21 21:43:24</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44095.90513888889</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20342,10 +19816,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2020-09-21 21:41:35</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44095.90387731481</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20413,10 +19885,8 @@
           <t>3516179246</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2020-09-21 21:38:11</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44095.9015162037</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20480,10 +19950,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2020-09-21 21:37:19</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44095.90091435185</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20543,10 +20011,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2020-09-21 21:36:39</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44095.90045138889</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20610,10 +20076,8 @@
           <t>3515639412</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2020-09-21 21:35:33</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44095.8996875</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20677,10 +20141,8 @@
           <t>3516687698</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2020-09-21 21:34:57</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44095.89927083333</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -20748,10 +20210,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2020-09-21 21:33:47</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44095.89846064815</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20827,10 +20287,8 @@
           <t>3515622876</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2020-09-21 21:33:02</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44095.89793981481</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -20894,10 +20352,8 @@
           <t>3516675017</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2020-09-21 21:29:23</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44095.89540509259</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -20965,10 +20421,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2020-09-21 21:28:18</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44095.89465277778</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -21036,10 +20490,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2020-09-21 21:28:11</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44095.89457175926</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -21107,10 +20559,8 @@
           <t>3515622876</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2020-09-21 21:27:40</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44095.89421296296</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -21174,10 +20624,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2020-09-21 21:25:34</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44095.89275462963</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21245,10 +20693,8 @@
           <t>3516652106</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2020-09-21 21:24:39</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44095.89211805556</v>
       </c>
       <c r="I286" t="n">
         <v>1</v>
@@ -21316,10 +20762,8 @@
           <t>3516424931</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2020-09-21 21:23:34</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44095.89136574074</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21387,10 +20831,8 @@
           <t>3515622876</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2020-09-21 21:22:34</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44095.8906712963</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21454,10 +20896,8 @@
           <t>3515694251</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2020-09-21 21:17:14</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44095.8869675926</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21517,10 +20957,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2020-09-21 21:07:52</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44095.88046296296</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21596,10 +21034,8 @@
           <t>3516424931</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2020-09-21 21:03:00</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44095.87708333333</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21675,10 +21111,8 @@
           <t>3515694251</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2020-09-21 20:59:24</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44095.87458333333</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -21754,10 +21188,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2020-09-21 20:54:44</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44095.8713425926</v>
       </c>
       <c r="I293" t="n">
         <v>1</v>
@@ -21821,10 +21253,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2020-09-21 20:52:34</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44095.86983796296</v>
       </c>
       <c r="I294" t="n">
         <v>1</v>
@@ -21900,10 +21330,8 @@
           <t>3515596737</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2020-09-21 20:42:11</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44095.86262731482</v>
       </c>
       <c r="I295" t="n">
         <v>1</v>
@@ -21971,10 +21399,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2020-09-21 20:41:31</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44095.86216435185</v>
       </c>
       <c r="I296" t="n">
         <v>1</v>
@@ -22050,10 +21476,8 @@
           <t>3515694251</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2020-09-21 20:39:59</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44095.86109953704</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -22113,10 +21537,8 @@
           <t>3515840074</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2020-09-21 20:39:55</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44095.86105324074</v>
       </c>
       <c r="I298" t="n">
         <v>1</v>
@@ -22184,10 +21606,8 @@
           <t>3516304266</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2020-09-21 20:39:53</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44095.86103009259</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22264,10 +21684,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2020-09-21 20:39:22</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44095.86067129629</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22344,10 +21762,8 @@
           <t>3516495908</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2020-09-21 20:39:10</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44095.86053240741</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22407,10 +21823,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2020-09-21 20:38:15</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44095.85989583333</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -22486,10 +21900,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2020-09-21 20:36:51</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44095.85892361111</v>
       </c>
       <c r="I303" t="n">
         <v>1</v>
@@ -22557,10 +21969,8 @@
           <t>3516355031</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2020-09-21 20:28:04</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44095.85282407407</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22632,10 +22042,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2020-09-21 20:26:20</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44095.85162037037</v>
       </c>
       <c r="I305" t="n">
         <v>1</v>
@@ -22711,10 +22119,8 @@
           <t>3516450501</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2020-09-21 20:25:22</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44095.85094907408</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -22790,10 +22196,8 @@
           <t>3515482969</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2020-09-21 20:23:06</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44095.849375</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -22861,10 +22265,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2020-09-21 20:22:47</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44095.84915509259</v>
       </c>
       <c r="I308" t="n">
         <v>1</v>
@@ -22936,10 +22338,8 @@
           <t>3515426634</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2020-09-21 20:18:52</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44095.84643518519</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
@@ -23007,10 +22407,8 @@
           <t>3516309419</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2020-09-21 20:15:14</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44095.84391203704</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -23086,10 +22484,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2020-09-21 20:13:03</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44095.84239583334</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -23155,10 +22551,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2020-09-21 20:12:45</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44095.8421875</v>
       </c>
       <c r="I312" t="n">
         <v>15</v>
@@ -23230,10 +22624,8 @@
           <t>3516405518</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2020-09-21 20:12:05</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44095.84172453704</v>
       </c>
       <c r="I313" t="n">
         <v>1</v>
@@ -23309,10 +22701,8 @@
           <t>3516342038</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2020-09-21 20:08:38</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44095.8393287037</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
@@ -23376,10 +22766,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2020-09-21 20:07:34</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44095.83858796296</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
@@ -23451,10 +22839,8 @@
           <t>3516390073</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2020-09-21 20:07:16</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44095.83837962963</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -23523,10 +22909,8 @@
           <t>3515482969</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2020-09-21 20:06:23</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44095.8377662037</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -23594,10 +22978,8 @@
           <t>3516378819</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2020-09-21 20:06:10</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44095.83761574074</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23661,10 +23043,8 @@
           <t>3516355031</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2020-09-21 20:05:23</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44095.83707175926</v>
       </c>
       <c r="I319" t="n">
         <v>1</v>
@@ -23732,10 +23112,8 @@
           <t>3515597008</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2020-09-21 20:00:05</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44095.83339120371</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
@@ -23811,10 +23189,8 @@
           <t>3516355031</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2020-09-21 19:57:26</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44095.83155092593</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -23886,10 +23262,8 @@
           <t>3516339933</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2020-09-21 19:56:26</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44095.83085648148</v>
       </c>
       <c r="I322" t="n">
         <v>1</v>
@@ -23953,10 +23327,8 @@
           <t>3516342038</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2020-09-21 19:54:52</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44095.82976851852</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -24024,10 +23396,8 @@
           <t>3515622876</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2020-09-21 19:51:05</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44095.82714120371</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
@@ -24091,10 +23461,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2020-09-21 19:47:56</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44095.8249537037</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -24163,10 +23531,8 @@
           <t>3516309419</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2020-09-21 19:47:27</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44095.82461805556</v>
       </c>
       <c r="I326" t="n">
         <v>1</v>
@@ -24238,10 +23604,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2020-09-21 19:47:10</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44095.8244212963</v>
       </c>
       <c r="I327" t="n">
         <v>1</v>
@@ -24310,10 +23674,8 @@
           <t>3515525703</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2020-09-21 19:46:23</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44095.82387731481</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24381,10 +23743,8 @@
           <t>3516315631</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2020-09-21 19:46:19</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44095.82383101852</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -24448,10 +23808,8 @@
           <t>3516304266</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2020-09-21 19:45:09</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44095.82302083333</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -24523,10 +23881,8 @@
           <t>3515694251</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2020-09-21 19:41:49</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44095.82070601852</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -24602,10 +23958,8 @@
           <t>3515624228</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2020-09-21 19:32:20</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44095.81412037037</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24681,10 +24035,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2020-09-21 19:31:02</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44095.81321759259</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
@@ -24760,10 +24112,8 @@
           <t>3516024782</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2020-09-21 19:23:22</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44095.80789351852</v>
       </c>
       <c r="I334" t="n">
         <v>1</v>
@@ -24831,10 +24181,8 @@
           <t>3516235168</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2020-09-21 19:22:51</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44095.80753472223</v>
       </c>
       <c r="I335" t="n">
         <v>1</v>
@@ -24902,10 +24250,8 @@
           <t>3516215727</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2020-09-21 19:18:37</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44095.80459490741</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -24977,10 +24323,8 @@
           <t>3515713661</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2020-09-21 19:16:32</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44095.80314814814</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -25056,10 +24400,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2020-09-21 19:14:56</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44095.80203703704</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -25123,10 +24465,8 @@
           <t>3515475876</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2020-09-21 19:13:28</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44095.80101851852</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
@@ -25198,10 +24538,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2020-09-21 19:12:14</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44095.80016203703</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25269,10 +24607,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2020-09-21 19:11:28</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44095.79962962963</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -25340,10 +24676,8 @@
           <t>3516191653</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2020-09-21 19:11:08</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44095.79939814815</v>
       </c>
       <c r="I342" t="n">
         <v>21</v>
@@ -25407,10 +24741,8 @@
           <t>3516179246</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2020-09-21 19:09:06</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44095.79798611111</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
@@ -25478,10 +24810,8 @@
           <t>3515713661</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2020-09-21 19:07:19</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44095.79674768518</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
@@ -25557,10 +24887,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2020-09-21 19:06:51</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44095.79642361111</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
@@ -25620,10 +24948,8 @@
           <t>3515713661</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2020-09-21 19:05:59</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44095.79582175926</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
@@ -25699,10 +25025,8 @@
           <t>3516164071</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2020-09-21 19:04:38</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44095.79488425926</v>
       </c>
       <c r="I347" t="n">
         <v>1</v>
@@ -25766,10 +25090,8 @@
           <t>3515466229</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2020-09-21 19:02:57</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44095.79371527778</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
@@ -25845,10 +25167,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2020-09-21 19:02:02</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44095.7930787037</v>
       </c>
       <c r="I349" t="n">
         <v>11</v>
@@ -25920,10 +25240,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2020-09-21 18:58:40</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44095.79074074074</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
@@ -25987,10 +25305,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2020-09-21 18:56:11</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44095.7890162037</v>
       </c>
       <c r="I351" t="n">
         <v>1</v>
@@ -26058,10 +25374,8 @@
           <t>3515525703</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2020-09-21 18:49:41</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44095.78450231482</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
@@ -26129,10 +25443,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2020-09-21 18:48:01</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44095.78334490741</v>
       </c>
       <c r="I353" t="n">
         <v>1</v>
@@ -26204,10 +25516,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2020-09-21 18:47:02</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44095.78266203704</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
@@ -26279,10 +25589,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2020-09-21 18:45:51</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44095.78184027778</v>
       </c>
       <c r="I355" t="n">
         <v>1</v>
@@ -26350,10 +25658,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2020-09-21 18:43:11</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44095.77998842593</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
@@ -26413,10 +25719,8 @@
           <t>3516087000</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2020-09-21 18:41:46</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44095.77900462963</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
@@ -26493,10 +25797,8 @@
           <t>3515412359</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2020-09-21 18:41:02</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44095.77849537037</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
@@ -26568,10 +25870,8 @@
           <t>3515525703</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2020-09-21 18:37:25</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44095.77598379629</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
@@ -26639,10 +25939,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2020-09-21 18:35:38</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44095.77474537037</v>
       </c>
       <c r="I360" t="n">
         <v>1</v>
@@ -26706,10 +26004,8 @@
           <t>3516062642</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2020-09-21 18:35:30</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44095.77465277778</v>
       </c>
       <c r="I361" t="n">
         <v>1</v>
@@ -26781,10 +26077,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2020-09-21 18:35:25</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44095.77459490741</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
@@ -26848,10 +26142,8 @@
           <t>3515525703</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2020-09-21 18:35:16</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44095.77449074074</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
@@ -26919,10 +26211,8 @@
           <t>3515525703</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2020-09-21 18:33:30</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44095.77326388889</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
@@ -26990,10 +26280,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2020-09-21 18:33:15</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44095.77309027778</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
@@ -27070,10 +26358,8 @@
           <t>3515525703</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2020-09-21 18:31:59</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44095.77221064815</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
@@ -27141,10 +26427,8 @@
           <t>3515525703</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2020-09-21 18:31:26</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44095.77182870371</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
@@ -27212,10 +26496,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2020-09-21 18:31:00</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44095.77152777778</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
@@ -27291,10 +26573,8 @@
           <t>3515837274</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2020-09-21 18:30:36</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44095.77125</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
@@ -27366,10 +26646,8 @@
           <t>3515998832</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2020-09-21 18:30:28</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44095.77115740741</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
@@ -27433,10 +26711,8 @@
           <t>3516037782</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2020-09-21 18:29:05</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44095.77019675926</v>
       </c>
       <c r="I371" t="n">
         <v>1</v>
@@ -27508,10 +26784,8 @@
           <t>3515998832</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2020-09-21 18:29:04</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44095.77018518518</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
@@ -27583,10 +26857,8 @@
           <t>3515525703</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2020-09-21 18:28:12</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44095.76958333333</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
@@ -27655,10 +26927,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2020-09-21 18:28:12</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44095.76958333333</v>
       </c>
       <c r="I374" t="n">
         <v>1</v>
@@ -27730,10 +27000,8 @@
           <t>3515837274</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2020-09-21 18:27:08</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44095.7688425926</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
@@ -27809,10 +27077,8 @@
           <t>3516024782</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2020-09-21 18:26:22</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44095.76831018519</v>
       </c>
       <c r="I376" t="n">
         <v>1</v>
@@ -27888,10 +27154,8 @@
           <t>3516028939</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2020-09-21 18:25:43</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44095.76785879629</v>
       </c>
       <c r="I377" t="n">
         <v>1</v>
@@ -27967,10 +27231,8 @@
           <t>3515837274</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2020-09-21 18:24:01</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44095.76667824074</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
@@ -28042,10 +27304,8 @@
           <t>3515518865</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2020-09-21 18:23:52</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44095.76657407408</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
@@ -28113,10 +27373,8 @@
           <t>3515518865</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2020-09-21 18:22:48</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44095.76583333333</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
@@ -28192,10 +27450,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2020-09-21 18:22:21</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44095.76552083333</v>
       </c>
       <c r="I381" t="n">
         <v>17</v>
@@ -28267,10 +27523,8 @@
           <t>3515622876</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2020-09-21 18:20:48</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44095.76444444444</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
@@ -28346,10 +27600,8 @@
           <t>3515525703</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2020-09-21 18:19:28</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44095.76351851852</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
@@ -28418,10 +27670,8 @@
           <t>3515622876</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2020-09-21 18:19:00</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44095.76319444444</v>
       </c>
       <c r="I384" t="n">
         <v>1</v>
@@ -28497,10 +27747,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2020-09-21 18:17:16</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44095.76199074074</v>
       </c>
       <c r="I385" t="n">
         <v>2</v>
@@ -28572,10 +27820,8 @@
           <t>3515525703</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2020-09-21 18:16:42</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44095.76159722222</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
@@ -28643,10 +27889,8 @@
           <t>3515998832</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2020-09-21 18:16:37</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44095.76153935185</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
@@ -28710,10 +27954,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2020-09-21 18:16:36</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44095.76152777778</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
@@ -28777,10 +28019,8 @@
           <t>3515525703</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2020-09-21 18:15:05</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44095.76047453703</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
@@ -28850,10 +28090,8 @@
           <t>3515837274</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2020-09-21 18:14:19</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44095.75994212963</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
@@ -28929,10 +28167,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2020-09-21 18:14:09</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44095.75982638889</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
@@ -29000,10 +28236,8 @@
           <t>3515466229</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2020-09-21 18:13:59</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44095.75971064815</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
@@ -29075,10 +28309,8 @@
           <t>3515525703</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2020-09-21 18:12:00</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44095.75833333333</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
@@ -29146,10 +28378,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2020-09-21 18:08:29</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44095.75589120371</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
@@ -29221,10 +28451,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2020-09-21 18:07:57</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44095.75552083334</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
@@ -29300,10 +28528,8 @@
           <t>3515961873</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2020-09-21 18:06:00</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44095.75416666667</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
@@ -29375,10 +28601,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2020-09-21 18:05:01</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44095.7534837963</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
@@ -29454,10 +28678,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2020-09-21 18:03:59</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44095.7527662037</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
@@ -29525,10 +28747,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2020-09-21 18:02:38</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44095.7518287037</v>
       </c>
       <c r="I399" t="n">
         <v>1</v>
@@ -29588,10 +28808,8 @@
           <t>3515947937</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2020-09-21 18:02:26</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44095.75168981482</v>
       </c>
       <c r="I400" t="n">
         <v>2</v>
@@ -29655,10 +28873,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2020-09-21 18:02:04</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44095.75143518519</v>
       </c>
       <c r="I401" t="n">
         <v>21</v>
@@ -29722,10 +28938,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2020-09-21 18:01:02</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44095.75071759259</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
@@ -29801,10 +29015,8 @@
           <t>3515928330</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2020-09-21 17:55:50</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44095.74710648148</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
@@ -29880,10 +29092,8 @@
           <t>3515583335</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2020-09-21 17:55:45</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44095.74704861111</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
@@ -29947,10 +29157,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2020-09-21 17:55:09</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44095.74663194444</v>
       </c>
       <c r="I405" t="n">
         <v>2</v>
@@ -30014,10 +29222,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2020-09-21 17:55:07</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44095.7466087963</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
@@ -30085,10 +29291,8 @@
           <t>3515879729</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2020-09-21 17:54:41</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44095.74630787037</v>
       </c>
       <c r="I407" t="n">
         <v>0</v>
@@ -30160,10 +29364,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2020-09-21 17:54:05</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44095.7458912037</v>
       </c>
       <c r="I408" t="n">
         <v>2</v>
@@ -30235,10 +29437,8 @@
           <t>3515918246</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2020-09-21 17:53:02</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44095.74516203703</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
@@ -30302,10 +29502,8 @@
           <t>3515904070</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2020-09-21 17:51:48</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44095.74430555556</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
@@ -30369,10 +29567,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2020-09-21 17:51:47</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44095.74429398148</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
@@ -30436,10 +29632,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2020-09-21 17:50:47</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44095.74359953704</v>
       </c>
       <c r="I412" t="n">
         <v>2</v>
@@ -30515,10 +29709,8 @@
           <t>3515904070</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2020-09-21 17:48:54</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44095.74229166667</v>
       </c>
       <c r="I413" t="n">
         <v>0</v>
@@ -30582,10 +29774,8 @@
           <t>3515482969</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2020-09-21 17:48:33</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44095.74204861111</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
@@ -30649,10 +29839,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2020-09-21 17:47:46</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44095.74150462963</v>
       </c>
       <c r="I415" t="n">
         <v>1</v>
@@ -30720,10 +29908,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2020-09-21 17:46:40</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44095.74074074074</v>
       </c>
       <c r="I416" t="n">
         <v>0</v>
@@ -30783,10 +29969,8 @@
           <t>3515901369</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2020-09-21 17:46:12</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44095.74041666667</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
@@ -30850,10 +30034,8 @@
           <t>3515482969</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2020-09-21 17:46:02</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44095.74030092593</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
@@ -30921,10 +30103,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2020-09-21 17:45:41</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44095.74005787037</v>
       </c>
       <c r="I419" t="n">
         <v>1</v>
@@ -30992,10 +30172,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2020-09-21 17:45:13</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44095.7397337963</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
@@ -31059,10 +30237,8 @@
           <t>3515900108</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2020-09-21 17:44:57</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44095.73954861111</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
@@ -31126,10 +30302,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2020-09-21 17:44:24</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44095.73916666667</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
@@ -31193,10 +30367,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2020-09-21 17:43:40</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44095.7386574074</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
@@ -31264,10 +30436,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2020-09-21 17:42:51</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44095.73809027778</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
@@ -31331,10 +30501,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2020-09-21 17:42:23</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44095.7377662037</v>
       </c>
       <c r="I425" t="n">
         <v>0</v>
@@ -31402,10 +30570,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2020-09-21 17:40:19</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44095.73633101852</v>
       </c>
       <c r="I426" t="n">
         <v>1</v>
@@ -31473,10 +30639,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2020-09-21 17:40:13</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44095.73626157407</v>
       </c>
       <c r="I427" t="n">
         <v>1</v>
@@ -31540,10 +30704,8 @@
           <t>3515879729</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2020-09-21 17:39:57</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44095.73607638889</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
@@ -31615,10 +30777,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2020-09-21 17:39:09</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44095.73552083333</v>
       </c>
       <c r="I429" t="n">
         <v>0</v>
@@ -31694,10 +30854,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2020-09-21 17:39:05</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44095.73547453704</v>
       </c>
       <c r="I430" t="n">
         <v>1</v>
@@ -31761,10 +30919,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2020-09-21 17:37:57</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44095.7346875</v>
       </c>
       <c r="I431" t="n">
         <v>0</v>
@@ -31828,10 +30984,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2020-09-21 17:37:03</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44095.7340625</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
@@ -31895,10 +31049,8 @@
           <t>3515869091</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2020-09-21 17:36:53</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44095.73394675926</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
@@ -31962,10 +31114,8 @@
           <t>3515473097</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2020-09-21 17:35:58</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44095.73331018518</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
@@ -32037,10 +31187,8 @@
           <t>3515517253</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2020-09-21 17:35:30</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44095.73298611111</v>
       </c>
       <c r="I435" t="n">
         <v>0</v>
@@ -32100,10 +31248,8 @@
           <t>3515426634</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2020-09-21 17:35:13</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44095.73278935185</v>
       </c>
       <c r="I436" t="n">
         <v>0</v>
@@ -32167,10 +31313,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2020-09-21 17:34:39</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44095.73239583334</v>
       </c>
       <c r="I437" t="n">
         <v>1</v>
@@ -32238,10 +31382,8 @@
           <t>3515583857</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2020-09-21 17:33:24</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44095.73152777777</v>
       </c>
       <c r="I438" t="n">
         <v>0</v>
@@ -32301,10 +31443,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2020-09-21 17:32:23</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44095.73082175926</v>
       </c>
       <c r="I439" t="n">
         <v>1</v>
@@ -32372,10 +31512,8 @@
           <t>3515518865</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2020-09-21 17:30:57</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44095.72982638889</v>
       </c>
       <c r="I440" t="n">
         <v>0</v>
@@ -32443,10 +31581,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2020-09-21 17:30:44</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44095.72967592593</v>
       </c>
       <c r="I441" t="n">
         <v>0</v>
@@ -32518,10 +31654,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2020-09-21 17:29:48</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44095.72902777778</v>
       </c>
       <c r="I442" t="n">
         <v>6</v>
@@ -32585,10 +31719,8 @@
           <t>3515482969</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2020-09-21 17:29:47</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44095.7290162037</v>
       </c>
       <c r="I443" t="n">
         <v>0</v>
@@ -32656,10 +31788,8 @@
           <t>3515622876</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2020-09-21 17:29:42</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44095.72895833333</v>
       </c>
       <c r="I444" t="n">
         <v>0</v>
@@ -32727,10 +31857,8 @@
           <t>3515482969</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2020-09-21 17:29:22</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44095.72872685185</v>
       </c>
       <c r="I445" t="n">
         <v>0</v>
@@ -32798,10 +31926,8 @@
           <t>3515840074</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2020-09-21 17:26:38</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44095.7268287037</v>
       </c>
       <c r="I446" t="n">
         <v>0</v>
@@ -32879,10 +32005,8 @@
           <t>3515482969</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2020-09-21 17:24:52</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44095.72560185185</v>
       </c>
       <c r="I447" t="n">
         <v>0</v>
@@ -32946,10 +32070,8 @@
           <t>3515837274</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2020-09-21 17:24:14</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44095.72516203704</v>
       </c>
       <c r="I448" t="n">
         <v>0</v>
@@ -33021,10 +32143,8 @@
           <t>3515482969</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2020-09-21 17:23:53</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44095.72491898148</v>
       </c>
       <c r="I449" t="n">
         <v>0</v>
@@ -33092,10 +32212,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2020-09-21 17:23:38</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44095.72474537037</v>
       </c>
       <c r="I450" t="n">
         <v>0</v>
@@ -33173,10 +32291,8 @@
           <t>3515840074</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2020-09-21 17:23:24</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44095.72458333334</v>
       </c>
       <c r="I451" t="n">
         <v>1</v>
@@ -33244,10 +32360,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2020-09-21 17:23:11</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44095.72443287037</v>
       </c>
       <c r="I452" t="n">
         <v>0</v>
@@ -33315,10 +32429,8 @@
           <t>3515482969</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2020-09-21 17:21:32</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44095.72328703704</v>
       </c>
       <c r="I453" t="n">
         <v>0</v>
@@ -33389,10 +32501,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2020-09-21 17:21:04</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44095.72296296297</v>
       </c>
       <c r="I454" t="n">
         <v>0</v>
@@ -33456,10 +32566,8 @@
           <t>3515525703</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2020-09-21 17:20:40</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44095.72268518519</v>
       </c>
       <c r="I455" t="n">
         <v>0</v>
@@ -33527,10 +32635,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2020-09-21 17:20:23</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44095.72248842593</v>
       </c>
       <c r="I456" t="n">
         <v>0</v>
@@ -33594,10 +32700,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2020-09-21 17:19:51</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44095.72211805556</v>
       </c>
       <c r="I457" t="n">
         <v>0</v>
@@ -33661,10 +32765,8 @@
           <t>3515426634</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2020-09-21 17:19:21</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44095.72177083333</v>
       </c>
       <c r="I458" t="n">
         <v>0</v>
@@ -33732,10 +32834,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2020-09-21 17:19:10</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44095.72164351852</v>
       </c>
       <c r="I459" t="n">
         <v>0</v>
@@ -33806,10 +32906,8 @@
           <t>3515473097</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2020-09-21 17:18:50</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44095.72141203703</v>
       </c>
       <c r="I460" t="n">
         <v>0</v>
@@ -33873,10 +32971,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2020-09-21 17:18:27</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44095.72114583333</v>
       </c>
       <c r="I461" t="n">
         <v>0</v>
@@ -33947,10 +33043,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2020-09-21 17:17:08</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44095.72023148148</v>
       </c>
       <c r="I462" t="n">
         <v>0</v>
@@ -34028,10 +33122,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2020-09-21 17:16:23</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44095.71971064815</v>
       </c>
       <c r="I463" t="n">
         <v>1</v>
@@ -34109,10 +33201,8 @@
           <t>3515455859</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2020-09-21 17:16:14</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44095.71960648148</v>
       </c>
       <c r="I464" t="n">
         <v>0</v>
@@ -34176,10 +33266,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2020-09-21 17:14:56</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44095.7187037037</v>
       </c>
       <c r="I465" t="n">
         <v>1</v>
@@ -34243,10 +33331,8 @@
           <t>3515473097</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2020-09-21 17:14:56</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44095.7187037037</v>
       </c>
       <c r="I466" t="n">
         <v>0</v>
@@ -34310,10 +33396,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2020-09-21 17:13:47</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44095.71790509259</v>
       </c>
       <c r="I467" t="n">
         <v>0</v>
@@ -34381,10 +33465,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2020-09-21 17:13:46</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44095.71789351852</v>
       </c>
       <c r="I468" t="n">
         <v>2</v>
@@ -34448,10 +33530,8 @@
           <t>3515473097</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2020-09-21 17:12:59</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44095.71734953704</v>
       </c>
       <c r="I469" t="n">
         <v>0</v>
@@ -34515,10 +33595,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2020-09-21 17:09:36</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44095.715</v>
       </c>
       <c r="I470" t="n">
         <v>0</v>
@@ -34590,10 +33668,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2020-09-21 17:06:37</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44095.71292824074</v>
       </c>
       <c r="I471" t="n">
         <v>1</v>
@@ -34661,10 +33737,8 @@
           <t>3515426634</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2020-09-21 17:06:33</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44095.71288194445</v>
       </c>
       <c r="I472" t="n">
         <v>1</v>
@@ -34728,10 +33802,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2020-09-21 17:05:16</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44095.71199074074</v>
       </c>
       <c r="I473" t="n">
         <v>1</v>
@@ -34799,10 +33871,8 @@
           <t>3515473097</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2020-09-21 17:03:23</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44095.71068287037</v>
       </c>
       <c r="I474" t="n">
         <v>0</v>
@@ -34866,10 +33936,8 @@
           <t>3515466229</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2020-09-21 17:01:33</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44095.70940972222</v>
       </c>
       <c r="I475" t="n">
         <v>0</v>
@@ -34941,10 +34009,8 @@
           <t>3515426634</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2020-09-21 17:00:29</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44095.70866898148</v>
       </c>
       <c r="I476" t="n">
         <v>0</v>
@@ -35012,10 +34078,8 @@
           <t>3515525703</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2020-09-21 17:00:26</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44095.70863425926</v>
       </c>
       <c r="I477" t="n">
         <v>0</v>
@@ -35083,10 +34147,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2020-09-21 17:00:16</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44095.70851851852</v>
       </c>
       <c r="I478" t="n">
         <v>1</v>
@@ -35154,10 +34216,8 @@
           <t>3515525703</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2020-09-21 16:58:55</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44095.70758101852</v>
       </c>
       <c r="I479" t="n">
         <v>0</v>
@@ -35225,10 +34285,8 @@
           <t>3515426634</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2020-09-21 16:57:40</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44095.70671296296</v>
       </c>
       <c r="I480" t="n">
         <v>0</v>
@@ -35292,10 +34350,8 @@
           <t>3515412359</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2020-09-21 16:56:47</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44095.70609953703</v>
       </c>
       <c r="I481" t="n">
         <v>0</v>
@@ -35359,10 +34415,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2020-09-21 16:56:06</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44095.705625</v>
       </c>
       <c r="I482" t="n">
         <v>2</v>
@@ -35422,10 +34476,8 @@
           <t>3515694251</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2020-09-21 16:53:43</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44095.70396990741</v>
       </c>
       <c r="I483" t="n">
         <v>0</v>
@@ -35497,10 +34549,8 @@
           <t>3515758245</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2020-09-21 16:52:27</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44095.70309027778</v>
       </c>
       <c r="I484" t="n">
         <v>0</v>
@@ -35578,10 +34628,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2020-09-21 16:52:10</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44095.70289351852</v>
       </c>
       <c r="I485" t="n">
         <v>0</v>
@@ -35645,10 +34693,8 @@
           <t>3515466229</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2020-09-21 16:51:38</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44095.70252314815</v>
       </c>
       <c r="I486" t="n">
         <v>0</v>
@@ -35726,10 +34772,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2020-09-21 16:51:35</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44095.70248842592</v>
       </c>
       <c r="I487" t="n">
         <v>3</v>
@@ -35793,10 +34837,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2020-09-21 16:50:17</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44095.70158564814</v>
       </c>
       <c r="I488" t="n">
         <v>0</v>
@@ -35872,10 +34914,8 @@
           <t>3515518453</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2020-09-21 16:50:04</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44095.70143518518</v>
       </c>
       <c r="I489" t="n">
         <v>0</v>
@@ -35953,10 +34993,8 @@
           <t>3515624228</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2020-09-21 16:50:00</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44095.70138888889</v>
       </c>
       <c r="I490" t="n">
         <v>0</v>
@@ -36028,10 +35066,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2020-09-21 16:49:57</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44095.70135416667</v>
       </c>
       <c r="I491" t="n">
         <v>0</v>
@@ -36107,10 +35143,8 @@
           <t>3515473097</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2020-09-21 16:49:14</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44095.70085648148</v>
       </c>
       <c r="I492" t="n">
         <v>1</v>
@@ -36182,10 +35216,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2020-09-21 16:49:00</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44095.70069444444</v>
       </c>
       <c r="I493" t="n">
         <v>2</v>
@@ -36263,10 +35295,8 @@
           <t>3515744528</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2020-09-21 16:47:44</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44095.69981481481</v>
       </c>
       <c r="I494" t="n">
         <v>1</v>
@@ -36330,10 +35360,8 @@
           <t>3515622876</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2020-09-21 16:47:25</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44095.6995949074</v>
       </c>
       <c r="I495" t="n">
         <v>0</v>
@@ -36405,10 +35433,8 @@
           <t>3515622876</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2020-09-21 16:47:24</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44095.69958333333</v>
       </c>
       <c r="I496" t="n">
         <v>4</v>
@@ -36472,10 +35498,8 @@
           <t>3515713661</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2020-09-21 16:46:36</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44095.69902777778</v>
       </c>
       <c r="I497" t="n">
         <v>2</v>
@@ -36551,10 +35575,8 @@
           <t>3515444207</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2020-09-21 16:45:04</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44095.69796296296</v>
       </c>
       <c r="I498" t="n">
         <v>0</v>
@@ -36630,10 +35652,8 @@
           <t>3515444207</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2020-09-21 16:44:52</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44095.69782407407</v>
       </c>
       <c r="I499" t="n">
         <v>1</v>
@@ -36709,10 +35729,8 @@
           <t>3515622876</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2020-09-21 16:44:45</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44095.69774305556</v>
       </c>
       <c r="I500" t="n">
         <v>1</v>
@@ -36776,10 +35794,8 @@
           <t>3515734350</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2020-09-21 16:44:41</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44095.69769675926</v>
       </c>
       <c r="I501" t="n">
         <v>2</v>
@@ -36843,10 +35859,8 @@
           <t>3515738005</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2020-09-21 16:44:13</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44095.69737268519</v>
       </c>
       <c r="I502" t="n">
         <v>0</v>
@@ -36918,10 +35932,8 @@
           <t>3515741234</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2020-09-21 16:43:31</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44095.69688657407</v>
       </c>
       <c r="I503" t="n">
         <v>0</v>
@@ -36997,10 +36009,8 @@
           <t>3515426634</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2020-09-21 16:41:07</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44095.69521990741</v>
       </c>
       <c r="I504" t="n">
         <v>0</v>
@@ -37072,10 +36082,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2020-09-21 16:41:00</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44095.69513888889</v>
       </c>
       <c r="I505" t="n">
         <v>7</v>
@@ -37139,10 +36147,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2020-09-21 16:39:16</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44095.69393518518</v>
       </c>
       <c r="I506" t="n">
         <v>1</v>
@@ -37206,10 +36212,8 @@
           <t>3515473097</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2020-09-21 16:38:53</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44095.69366898148</v>
       </c>
       <c r="I507" t="n">
         <v>3</v>
@@ -37273,10 +36277,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2020-09-21 16:36:49</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44095.6922337963</v>
       </c>
       <c r="I508" t="n">
         <v>0</v>
@@ -37352,10 +36354,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2020-09-21 16:36:02</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44095.69168981481</v>
       </c>
       <c r="I509" t="n">
         <v>67</v>
@@ -37419,10 +36419,8 @@
           <t>3515473097</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2020-09-21 16:35:14</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44095.69113425926</v>
       </c>
       <c r="I510" t="n">
         <v>3</v>
@@ -37498,10 +36496,8 @@
           <t>3515713661</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2020-09-21 16:33:48</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44095.69013888889</v>
       </c>
       <c r="I511" t="n">
         <v>0</v>
@@ -37570,10 +36566,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2020-09-21 16:26:10</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44095.68483796297</v>
       </c>
       <c r="I512" t="n">
         <v>9</v>
@@ -37649,10 +36643,8 @@
           <t>3515694251</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2020-09-21 16:25:28</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44095.68435185185</v>
       </c>
       <c r="I513" t="n">
         <v>0</v>
@@ -37712,10 +36704,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2020-09-21 16:24:17</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44095.6835300926</v>
       </c>
       <c r="I514" t="n">
         <v>0</v>
@@ -37787,10 +36777,8 @@
           <t>3515688532</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2020-09-21 16:23:42</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44095.683125</v>
       </c>
       <c r="I515" t="n">
         <v>1</v>
@@ -37863,10 +36851,8 @@
           <t>3515640893</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2020-09-21 16:23:21</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44095.68288194444</v>
       </c>
       <c r="I516" t="n">
         <v>0</v>
@@ -37939,10 +36925,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2020-09-21 16:21:56</t>
-        </is>
+      <c r="H517" s="1" t="n">
+        <v>44095.68189814815</v>
       </c>
       <c r="I517" t="n">
         <v>0</v>
@@ -38014,10 +36998,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2020-09-21 16:19:48</t>
-        </is>
+      <c r="H518" s="1" t="n">
+        <v>44095.68041666667</v>
       </c>
       <c r="I518" t="n">
         <v>1</v>
@@ -38093,10 +37075,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2020-09-21 16:19:07</t>
-        </is>
+      <c r="H519" s="1" t="n">
+        <v>44095.67994212963</v>
       </c>
       <c r="I519" t="n">
         <v>0</v>
@@ -38161,10 +37141,8 @@
           <t>3515622876</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2020-09-21 16:18:15</t>
-        </is>
+      <c r="H520" s="1" t="n">
+        <v>44095.67934027778</v>
       </c>
       <c r="I520" t="n">
         <v>0</v>
@@ -38224,10 +37202,8 @@
           <t>3515475876</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2020-09-21 16:18:01</t>
-        </is>
+      <c r="H521" s="1" t="n">
+        <v>44095.67917824074</v>
       </c>
       <c r="I521" t="n">
         <v>0</v>
@@ -38303,10 +37279,8 @@
           <t>3515588190</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2020-09-21 16:17:54</t>
-        </is>
+      <c r="H522" s="1" t="n">
+        <v>44095.67909722222</v>
       </c>
       <c r="I522" t="n">
         <v>0</v>
@@ -38374,10 +37348,8 @@
           <t>3515588190</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2020-09-21 16:17:44</t>
-        </is>
+      <c r="H523" s="1" t="n">
+        <v>44095.67898148148</v>
       </c>
       <c r="I523" t="n">
         <v>0</v>
@@ -38449,10 +37421,8 @@
           <t>3515624228</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2020-09-21 16:15:00</t>
-        </is>
+      <c r="H524" s="1" t="n">
+        <v>44095.67708333334</v>
       </c>
       <c r="I524" t="n">
         <v>0</v>
@@ -38528,10 +37498,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2020-09-21 16:14:10</t>
-        </is>
+      <c r="H525" s="1" t="n">
+        <v>44095.67650462963</v>
       </c>
       <c r="I525" t="n">
         <v>0</v>
@@ -38595,10 +37563,8 @@
           <t>3515640893</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2020-09-21 16:13:51</t>
-        </is>
+      <c r="H526" s="1" t="n">
+        <v>44095.67628472222</v>
       </c>
       <c r="I526" t="n">
         <v>2</v>
@@ -38674,10 +37640,8 @@
           <t>3515668524</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2020-09-21 16:13:10</t>
-        </is>
+      <c r="H527" s="1" t="n">
+        <v>44095.67581018519</v>
       </c>
       <c r="I527" t="n">
         <v>0</v>
@@ -38753,10 +37717,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2020-09-21 16:11:48</t>
-        </is>
+      <c r="H528" s="1" t="n">
+        <v>44095.67486111111</v>
       </c>
       <c r="I528" t="n">
         <v>0</v>
@@ -38824,10 +37786,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2020-09-21 16:11:39</t>
-        </is>
+      <c r="H529" s="1" t="n">
+        <v>44095.67475694444</v>
       </c>
       <c r="I529" t="n">
         <v>0</v>
@@ -38895,10 +37855,8 @@
           <t>3515663858</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2020-09-21 16:10:44</t>
-        </is>
+      <c r="H530" s="1" t="n">
+        <v>44095.67412037037</v>
       </c>
       <c r="I530" t="n">
         <v>0</v>
@@ -38970,10 +37928,8 @@
           <t>3515412359</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2020-09-21 16:08:39</t>
-        </is>
+      <c r="H531" s="1" t="n">
+        <v>44095.67267361111</v>
       </c>
       <c r="I531" t="n">
         <v>2</v>
@@ -39049,10 +38005,8 @@
           <t>3515473097</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2020-09-21 16:08:15</t>
-        </is>
+      <c r="H532" s="1" t="n">
+        <v>44095.67239583333</v>
       </c>
       <c r="I532" t="n">
         <v>0</v>
@@ -39116,10 +38070,8 @@
           <t>3515639412</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2020-09-21 16:08:09</t>
-        </is>
+      <c r="H533" s="1" t="n">
+        <v>44095.67232638889</v>
       </c>
       <c r="I533" t="n">
         <v>11</v>
@@ -39195,10 +38147,8 @@
           <t>3515466229</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2020-09-21 16:07:33</t>
-        </is>
+      <c r="H534" s="1" t="n">
+        <v>44095.67190972222</v>
       </c>
       <c r="I534" t="n">
         <v>2</v>
@@ -39270,10 +38220,8 @@
           <t>3515654519</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2020-09-21 16:07:26</t>
-        </is>
+      <c r="H535" s="1" t="n">
+        <v>44095.6718287037</v>
       </c>
       <c r="I535" t="n">
         <v>0</v>
@@ -39337,10 +38285,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2020-09-21 16:07:06</t>
-        </is>
+      <c r="H536" s="1" t="n">
+        <v>44095.67159722222</v>
       </c>
       <c r="I536" t="n">
         <v>0</v>
@@ -39404,10 +38350,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2020-09-21 16:05:02</t>
-        </is>
+      <c r="H537" s="1" t="n">
+        <v>44095.67016203704</v>
       </c>
       <c r="I537" t="n">
         <v>0</v>
@@ -39486,10 +38430,8 @@
           <t>3515655173</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2020-09-21 16:04:37</t>
-        </is>
+      <c r="H538" s="1" t="n">
+        <v>44095.66987268518</v>
       </c>
       <c r="I538" t="n">
         <v>0</v>
@@ -39565,10 +38507,8 @@
           <t>3515473097</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>2020-09-21 16:03:43</t>
-        </is>
+      <c r="H539" s="1" t="n">
+        <v>44095.66924768518</v>
       </c>
       <c r="I539" t="n">
         <v>2</v>
@@ -39632,10 +38572,8 @@
           <t>3515518453</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>2020-09-21 16:01:58</t>
-        </is>
+      <c r="H540" s="1" t="n">
+        <v>44095.6680324074</v>
       </c>
       <c r="I540" t="n">
         <v>2</v>
@@ -39699,10 +38637,8 @@
           <t>3515640893</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2020-09-21 16:01:56</t>
-        </is>
+      <c r="H541" s="1" t="n">
+        <v>44095.66800925926</v>
       </c>
       <c r="I541" t="n">
         <v>1</v>
@@ -39775,10 +38711,8 @@
           <t>3515619531</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2020-09-21 16:00:58</t>
-        </is>
+      <c r="H542" s="1" t="n">
+        <v>44095.66733796296</v>
       </c>
       <c r="I542" t="n">
         <v>1</v>
@@ -39854,10 +38788,8 @@
           <t>3515596737</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2020-09-21 16:00:12</t>
-        </is>
+      <c r="H543" s="1" t="n">
+        <v>44095.66680555556</v>
       </c>
       <c r="I543" t="n">
         <v>0</v>
@@ -39925,10 +38857,8 @@
           <t>3515639412</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>2020-09-21 16:00:04</t>
-        </is>
+      <c r="H544" s="1" t="n">
+        <v>44095.66671296296</v>
       </c>
       <c r="I544" t="n">
         <v>2</v>
@@ -40004,10 +38934,8 @@
           <t>3515640893</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2020-09-21 15:58:34</t>
-        </is>
+      <c r="H545" s="1" t="n">
+        <v>44095.66567129629</v>
       </c>
       <c r="I545" t="n">
         <v>8</v>
@@ -40083,10 +39011,8 @@
           <t>3515475876</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>2020-09-21 15:58:28</t>
-        </is>
+      <c r="H546" s="1" t="n">
+        <v>44095.66560185186</v>
       </c>
       <c r="I546" t="n">
         <v>0</v>
@@ -40150,10 +39076,8 @@
           <t>3515412359</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>2020-09-21 15:58:17</t>
-        </is>
+      <c r="H547" s="1" t="n">
+        <v>44095.66547453704</v>
       </c>
       <c r="I547" t="n">
         <v>0</v>
@@ -40226,10 +39150,8 @@
           <t>3515637394</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2020-09-21 15:57:06</t>
-        </is>
+      <c r="H548" s="1" t="n">
+        <v>44095.66465277778</v>
       </c>
       <c r="I548" t="n">
         <v>0</v>
@@ -40293,10 +39215,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>2020-09-21 15:56:44</t>
-        </is>
+      <c r="H549" s="1" t="n">
+        <v>44095.66439814815</v>
       </c>
       <c r="I549" t="n">
         <v>0</v>
@@ -40356,10 +39276,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>2020-09-21 15:56:06</t>
-        </is>
+      <c r="H550" s="1" t="n">
+        <v>44095.66395833333</v>
       </c>
       <c r="I550" t="n">
         <v>0</v>
@@ -40431,10 +39349,8 @@
           <t>3515622876</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>2020-09-21 15:55:16</t>
-        </is>
+      <c r="H551" s="1" t="n">
+        <v>44095.66337962963</v>
       </c>
       <c r="I551" t="n">
         <v>10</v>
@@ -40510,10 +39426,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>2020-09-21 15:54:30</t>
-        </is>
+      <c r="H552" s="1" t="n">
+        <v>44095.66284722222</v>
       </c>
       <c r="I552" t="n">
         <v>6</v>
@@ -40577,10 +39491,8 @@
           <t>3515583335</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>2020-09-21 15:54:16</t>
-        </is>
+      <c r="H553" s="1" t="n">
+        <v>44095.66268518518</v>
       </c>
       <c r="I553" t="n">
         <v>11</v>
@@ -40652,10 +39564,8 @@
           <t>3515473097</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>2020-09-21 15:52:59</t>
-        </is>
+      <c r="H554" s="1" t="n">
+        <v>44095.66179398148</v>
       </c>
       <c r="I554" t="n">
         <v>0</v>
@@ -40719,10 +39629,8 @@
           <t>3515624228</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>2020-09-21 15:52:33</t>
-        </is>
+      <c r="H555" s="1" t="n">
+        <v>44095.66149305556</v>
       </c>
       <c r="I555" t="n">
         <v>5</v>
@@ -40798,10 +39706,8 @@
           <t>3515630749</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>2020-09-21 15:51:43</t>
-        </is>
+      <c r="H556" s="1" t="n">
+        <v>44095.66091435185</v>
       </c>
       <c r="I556" t="n">
         <v>1</v>
@@ -40869,10 +39775,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>2020-09-21 15:51:35</t>
-        </is>
+      <c r="H557" s="1" t="n">
+        <v>44095.66082175926</v>
       </c>
       <c r="I557" t="n">
         <v>0</v>
@@ -40944,10 +39848,8 @@
           <t>3515622876</t>
         </is>
       </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>2020-09-21 15:50:40</t>
-        </is>
+      <c r="H558" s="1" t="n">
+        <v>44095.66018518519</v>
       </c>
       <c r="I558" t="n">
         <v>9</v>
@@ -41011,10 +39913,8 @@
           <t>3515619531</t>
         </is>
       </c>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>2020-09-21 15:49:58</t>
-        </is>
+      <c r="H559" s="1" t="n">
+        <v>44095.65969907407</v>
       </c>
       <c r="I559" t="n">
         <v>1</v>
@@ -41090,10 +39990,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>2020-09-21 15:49:42</t>
-        </is>
+      <c r="H560" s="1" t="n">
+        <v>44095.65951388889</v>
       </c>
       <c r="I560" t="n">
         <v>0</v>
@@ -41161,10 +40059,8 @@
           <t>3515473097</t>
         </is>
       </c>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>2020-09-21 15:48:52</t>
-        </is>
+      <c r="H561" s="1" t="n">
+        <v>44095.65893518519</v>
       </c>
       <c r="I561" t="n">
         <v>0</v>
@@ -41236,10 +40132,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>2020-09-21 15:48:21</t>
-        </is>
+      <c r="H562" s="1" t="n">
+        <v>44095.65857638889</v>
       </c>
       <c r="I562" t="n">
         <v>0</v>
@@ -41303,10 +40197,8 @@
           <t>3515612868</t>
         </is>
       </c>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>2020-09-21 15:46:58</t>
-        </is>
+      <c r="H563" s="1" t="n">
+        <v>44095.65761574074</v>
       </c>
       <c r="I563" t="n">
         <v>0</v>
@@ -41382,10 +40274,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>2020-09-21 15:46:58</t>
-        </is>
+      <c r="H564" s="1" t="n">
+        <v>44095.65761574074</v>
       </c>
       <c r="I564" t="n">
         <v>1</v>
@@ -41461,10 +40351,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>2020-09-21 15:43:37</t>
-        </is>
+      <c r="H565" s="1" t="n">
+        <v>44095.65528935185</v>
       </c>
       <c r="I565" t="n">
         <v>0</v>
@@ -41536,10 +40424,8 @@
           <t>3515466229</t>
         </is>
       </c>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>2020-09-21 15:42:50</t>
-        </is>
+      <c r="H566" s="1" t="n">
+        <v>44095.65474537037</v>
       </c>
       <c r="I566" t="n">
         <v>4</v>
@@ -41603,10 +40489,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>2020-09-21 15:38:38</t>
-        </is>
+      <c r="H567" s="1" t="n">
+        <v>44095.6518287037</v>
       </c>
       <c r="I567" t="n">
         <v>1</v>
@@ -41674,10 +40558,8 @@
           <t>3515597008</t>
         </is>
       </c>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>2020-09-21 15:38:30</t>
-        </is>
+      <c r="H568" s="1" t="n">
+        <v>44095.65173611111</v>
       </c>
       <c r="I568" t="n">
         <v>0</v>
@@ -41745,10 +40627,8 @@
           <t>3515596737</t>
         </is>
       </c>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>2020-09-21 15:38:07</t>
-        </is>
+      <c r="H569" s="1" t="n">
+        <v>44095.65146990741</v>
       </c>
       <c r="I569" t="n">
         <v>1</v>
@@ -41820,10 +40700,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>2020-09-21 15:37:01</t>
-        </is>
+      <c r="H570" s="1" t="n">
+        <v>44095.65070601852</v>
       </c>
       <c r="I570" t="n">
         <v>0</v>
@@ -41896,10 +40774,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>2020-09-21 15:34:50</t>
-        </is>
+      <c r="H571" s="1" t="n">
+        <v>44095.64918981482</v>
       </c>
       <c r="I571" t="n">
         <v>0</v>
@@ -41959,10 +40835,8 @@
           <t>3515455859</t>
         </is>
       </c>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>2020-09-21 15:34:48</t>
-        </is>
+      <c r="H572" s="1" t="n">
+        <v>44095.64916666667</v>
       </c>
       <c r="I572" t="n">
         <v>0</v>
@@ -42030,10 +40904,8 @@
           <t>3515583857</t>
         </is>
       </c>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>2020-09-21 15:33:52</t>
-        </is>
+      <c r="H573" s="1" t="n">
+        <v>44095.64851851852</v>
       </c>
       <c r="I573" t="n">
         <v>0</v>
@@ -42101,10 +40973,8 @@
           <t>3515473097</t>
         </is>
       </c>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>2020-09-21 15:33:50</t>
-        </is>
+      <c r="H574" s="1" t="n">
+        <v>44095.64849537037</v>
       </c>
       <c r="I574" t="n">
         <v>0</v>
@@ -42172,10 +41042,8 @@
           <t>3515588190</t>
         </is>
       </c>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>2020-09-21 15:33:14</t>
-        </is>
+      <c r="H575" s="1" t="n">
+        <v>44095.64807870371</v>
       </c>
       <c r="I575" t="n">
         <v>0</v>
@@ -42239,10 +41107,8 @@
           <t>3515583335</t>
         </is>
       </c>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>2020-09-21 15:33:05</t>
-        </is>
+      <c r="H576" s="1" t="n">
+        <v>44095.64797453704</v>
       </c>
       <c r="I576" t="n">
         <v>0</v>
@@ -42310,10 +41176,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>2020-09-21 15:32:55</t>
-        </is>
+      <c r="H577" s="1" t="n">
+        <v>44095.6478587963</v>
       </c>
       <c r="I577" t="n">
         <v>0</v>
@@ -42389,10 +41253,8 @@
           <t>3515482969</t>
         </is>
       </c>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>2020-09-21 15:32:49</t>
-        </is>
+      <c r="H578" s="1" t="n">
+        <v>44095.64778935185</v>
       </c>
       <c r="I578" t="n">
         <v>0</v>
@@ -42460,10 +41322,8 @@
           <t>3515412359</t>
         </is>
       </c>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>2020-09-21 15:32:44</t>
-        </is>
+      <c r="H579" s="1" t="n">
+        <v>44095.64773148148</v>
       </c>
       <c r="I579" t="n">
         <v>0</v>
@@ -42539,10 +41399,8 @@
           <t>3515590295</t>
         </is>
       </c>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>2020-09-21 15:32:36</t>
-        </is>
+      <c r="H580" s="1" t="n">
+        <v>44095.64763888889</v>
       </c>
       <c r="I580" t="n">
         <v>1</v>
@@ -42606,10 +41464,8 @@
           <t>3515581715</t>
         </is>
       </c>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>2020-09-21 15:30:43</t>
-        </is>
+      <c r="H581" s="1" t="n">
+        <v>44095.64633101852</v>
       </c>
       <c r="I581" t="n">
         <v>0</v>
@@ -42685,10 +41541,8 @@
           <t>3515581684</t>
         </is>
       </c>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>2020-09-21 15:30:40</t>
-        </is>
+      <c r="H582" s="1" t="n">
+        <v>44095.6462962963</v>
       </c>
       <c r="I582" t="n">
         <v>0</v>
@@ -42756,10 +41610,8 @@
           <t>3515455859</t>
         </is>
       </c>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>2020-09-21 15:29:49</t>
-        </is>
+      <c r="H583" s="1" t="n">
+        <v>44095.64570601852</v>
       </c>
       <c r="I583" t="n">
         <v>0</v>
@@ -42831,10 +41683,8 @@
           <t>3515475876</t>
         </is>
       </c>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>2020-09-21 15:28:38</t>
-        </is>
+      <c r="H584" s="1" t="n">
+        <v>44095.64488425926</v>
       </c>
       <c r="I584" t="n">
         <v>3</v>
@@ -42898,10 +41748,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>2020-09-21 15:27:45</t>
-        </is>
+      <c r="H585" s="1" t="n">
+        <v>44095.64427083333</v>
       </c>
       <c r="I585" t="n">
         <v>0</v>
@@ -42969,10 +41817,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>2020-09-21 15:22:28</t>
-        </is>
+      <c r="H586" s="1" t="n">
+        <v>44095.64060185185</v>
       </c>
       <c r="I586" t="n">
         <v>0</v>
@@ -43036,10 +41882,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>2020-09-21 15:20:41</t>
-        </is>
+      <c r="H587" s="1" t="n">
+        <v>44095.63936342593</v>
       </c>
       <c r="I587" t="n">
         <v>0</v>
@@ -43115,10 +41959,8 @@
           <t>3515525703</t>
         </is>
       </c>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>2020-09-21 15:20:14</t>
-        </is>
+      <c r="H588" s="1" t="n">
+        <v>44095.63905092593</v>
       </c>
       <c r="I588" t="n">
         <v>0</v>
@@ -43182,10 +42024,8 @@
           <t>3515561406</t>
         </is>
       </c>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>2020-09-21 15:19:32</t>
-        </is>
+      <c r="H589" s="1" t="n">
+        <v>44095.63856481481</v>
       </c>
       <c r="I589" t="n">
         <v>0</v>
@@ -43257,10 +42097,8 @@
           <t>3515560502</t>
         </is>
       </c>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>2020-09-21 15:18:09</t>
-        </is>
+      <c r="H590" s="1" t="n">
+        <v>44095.63760416667</v>
       </c>
       <c r="I590" t="n">
         <v>1</v>
@@ -43328,10 +42166,8 @@
           <t>3515455859</t>
         </is>
       </c>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>2020-09-21 15:16:20</t>
-        </is>
+      <c r="H591" s="1" t="n">
+        <v>44095.6363425926</v>
       </c>
       <c r="I591" t="n">
         <v>0</v>
@@ -43399,10 +42235,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H592" t="inlineStr">
-        <is>
-          <t>2020-09-21 15:15:53</t>
-        </is>
+      <c r="H592" s="1" t="n">
+        <v>44095.6360300926</v>
       </c>
       <c r="I592" t="n">
         <v>1</v>
@@ -43470,10 +42304,8 @@
           <t>3515475876</t>
         </is>
       </c>
-      <c r="H593" t="inlineStr">
-        <is>
-          <t>2020-09-21 15:15:20</t>
-        </is>
+      <c r="H593" s="1" t="n">
+        <v>44095.63564814815</v>
       </c>
       <c r="I593" t="n">
         <v>0</v>
@@ -43537,10 +42369,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H594" t="inlineStr">
-        <is>
-          <t>2020-09-21 15:13:30</t>
-        </is>
+      <c r="H594" s="1" t="n">
+        <v>44095.634375</v>
       </c>
       <c r="I594" t="n">
         <v>0</v>
@@ -43604,10 +42434,8 @@
           <t>3515544322</t>
         </is>
       </c>
-      <c r="H595" t="inlineStr">
-        <is>
-          <t>2020-09-21 15:12:41</t>
-        </is>
+      <c r="H595" s="1" t="n">
+        <v>44095.63380787037</v>
       </c>
       <c r="I595" t="n">
         <v>0</v>
@@ -43675,10 +42503,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H596" t="inlineStr">
-        <is>
-          <t>2020-09-21 15:11:13</t>
-        </is>
+      <c r="H596" s="1" t="n">
+        <v>44095.63278935185</v>
       </c>
       <c r="I596" t="n">
         <v>1</v>
@@ -43754,10 +42580,8 @@
           <t>3515525703</t>
         </is>
       </c>
-      <c r="H597" t="inlineStr">
-        <is>
-          <t>2020-09-21 15:11:05</t>
-        </is>
+      <c r="H597" s="1" t="n">
+        <v>44095.63269675926</v>
       </c>
       <c r="I597" t="n">
         <v>1</v>
@@ -43825,10 +42649,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H598" t="inlineStr">
-        <is>
-          <t>2020-09-21 15:09:33</t>
-        </is>
+      <c r="H598" s="1" t="n">
+        <v>44095.63163194444</v>
       </c>
       <c r="I598" t="n">
         <v>0</v>
@@ -43896,10 +42718,8 @@
           <t>3515541788</t>
         </is>
       </c>
-      <c r="H599" t="inlineStr">
-        <is>
-          <t>2020-09-21 15:08:53</t>
-        </is>
+      <c r="H599" s="1" t="n">
+        <v>44095.63116898148</v>
       </c>
       <c r="I599" t="n">
         <v>0</v>
@@ -43971,10 +42791,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H600" t="inlineStr">
-        <is>
-          <t>2020-09-21 15:08:48</t>
-        </is>
+      <c r="H600" s="1" t="n">
+        <v>44095.63111111111</v>
       </c>
       <c r="I600" t="n">
         <v>1</v>
@@ -44050,10 +42868,8 @@
           <t>3515484205</t>
         </is>
       </c>
-      <c r="H601" t="inlineStr">
-        <is>
-          <t>2020-09-21 15:08:36</t>
-        </is>
+      <c r="H601" s="1" t="n">
+        <v>44095.63097222222</v>
       </c>
       <c r="I601" t="n">
         <v>0</v>
@@ -44125,10 +42941,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H602" t="inlineStr">
-        <is>
-          <t>2020-09-21 15:08:34</t>
-        </is>
+      <c r="H602" s="1" t="n">
+        <v>44095.63094907408</v>
       </c>
       <c r="I602" t="n">
         <v>0</v>
@@ -44192,10 +43006,8 @@
           <t>3515533826</t>
         </is>
       </c>
-      <c r="H603" t="inlineStr">
-        <is>
-          <t>2020-09-21 15:08:10</t>
-        </is>
+      <c r="H603" s="1" t="n">
+        <v>44095.6306712963</v>
       </c>
       <c r="I603" t="n">
         <v>0</v>
@@ -44267,10 +43079,8 @@
           <t>3515475876</t>
         </is>
       </c>
-      <c r="H604" t="inlineStr">
-        <is>
-          <t>2020-09-21 15:08:10</t>
-        </is>
+      <c r="H604" s="1" t="n">
+        <v>44095.6306712963</v>
       </c>
       <c r="I604" t="n">
         <v>1</v>
@@ -44338,10 +43148,8 @@
           <t>3515444207</t>
         </is>
       </c>
-      <c r="H605" t="inlineStr">
-        <is>
-          <t>2020-09-21 15:07:06</t>
-        </is>
+      <c r="H605" s="1" t="n">
+        <v>44095.62993055556</v>
       </c>
       <c r="I605" t="n">
         <v>0</v>
@@ -44407,10 +43215,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H606" t="inlineStr">
-        <is>
-          <t>2020-09-21 15:06:35</t>
-        </is>
+      <c r="H606" s="1" t="n">
+        <v>44095.62957175926</v>
       </c>
       <c r="I606" t="n">
         <v>0</v>
@@ -44486,10 +43292,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H607" t="inlineStr">
-        <is>
-          <t>2020-09-21 15:06:21</t>
-        </is>
+      <c r="H607" s="1" t="n">
+        <v>44095.62940972222</v>
       </c>
       <c r="I607" t="n">
         <v>0</v>
@@ -44557,10 +43361,8 @@
           <t>3515466229</t>
         </is>
       </c>
-      <c r="H608" t="inlineStr">
-        <is>
-          <t>2020-09-21 15:06:05</t>
-        </is>
+      <c r="H608" s="1" t="n">
+        <v>44095.62922453704</v>
       </c>
       <c r="I608" t="n">
         <v>1</v>
@@ -44632,10 +43434,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H609" t="inlineStr">
-        <is>
-          <t>2020-09-21 15:04:43</t>
-        </is>
+      <c r="H609" s="1" t="n">
+        <v>44095.62827546296</v>
       </c>
       <c r="I609" t="n">
         <v>3</v>
@@ -44703,10 +43503,8 @@
           <t>3515518453</t>
         </is>
       </c>
-      <c r="H610" t="inlineStr">
-        <is>
-          <t>2020-09-21 15:03:26</t>
-        </is>
+      <c r="H610" s="1" t="n">
+        <v>44095.62738425926</v>
       </c>
       <c r="I610" t="n">
         <v>1</v>
@@ -44774,10 +43572,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H611" t="inlineStr">
-        <is>
-          <t>2020-09-21 15:03:04</t>
-        </is>
+      <c r="H611" s="1" t="n">
+        <v>44095.62712962963</v>
       </c>
       <c r="I611" t="n">
         <v>6</v>
@@ -44849,10 +43645,8 @@
           <t>3515527642</t>
         </is>
       </c>
-      <c r="H612" t="inlineStr">
-        <is>
-          <t>2020-09-21 15:02:38</t>
-        </is>
+      <c r="H612" s="1" t="n">
+        <v>44095.6268287037</v>
       </c>
       <c r="I612" t="n">
         <v>0</v>
@@ -44928,10 +43722,8 @@
           <t>3515518865</t>
         </is>
       </c>
-      <c r="H613" t="inlineStr">
-        <is>
-          <t>2020-09-21 15:00:28</t>
-        </is>
+      <c r="H613" s="1" t="n">
+        <v>44095.62532407408</v>
       </c>
       <c r="I613" t="n">
         <v>0</v>
@@ -45007,10 +43799,8 @@
           <t>3515484205</t>
         </is>
       </c>
-      <c r="H614" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:59:57</t>
-        </is>
+      <c r="H614" s="1" t="n">
+        <v>44095.62496527778</v>
       </c>
       <c r="I614" t="n">
         <v>0</v>
@@ -45078,10 +43868,8 @@
           <t>3515518453</t>
         </is>
       </c>
-      <c r="H615" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:59:53</t>
-        </is>
+      <c r="H615" s="1" t="n">
+        <v>44095.62491898148</v>
       </c>
       <c r="I615" t="n">
         <v>2</v>
@@ -45153,10 +43941,8 @@
           <t>3515521041</t>
         </is>
       </c>
-      <c r="H616" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:59:33</t>
-        </is>
+      <c r="H616" s="1" t="n">
+        <v>44095.6246875</v>
       </c>
       <c r="I616" t="n">
         <v>0</v>
@@ -45224,10 +44010,8 @@
           <t>3515525703</t>
         </is>
       </c>
-      <c r="H617" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:59:32</t>
-        </is>
+      <c r="H617" s="1" t="n">
+        <v>44095.62467592592</v>
       </c>
       <c r="I617" t="n">
         <v>3</v>
@@ -45299,10 +44083,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H618" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:58:38</t>
-        </is>
+      <c r="H618" s="1" t="n">
+        <v>44095.62405092592</v>
       </c>
       <c r="I618" t="n">
         <v>1</v>
@@ -45370,10 +44152,8 @@
           <t>3515482969</t>
         </is>
       </c>
-      <c r="H619" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:58:24</t>
-        </is>
+      <c r="H619" s="1" t="n">
+        <v>44095.62388888889</v>
       </c>
       <c r="I619" t="n">
         <v>1</v>
@@ -45441,10 +44221,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H620" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:58:21</t>
-        </is>
+      <c r="H620" s="1" t="n">
+        <v>44095.62385416667</v>
       </c>
       <c r="I620" t="n">
         <v>0</v>
@@ -45520,10 +44298,8 @@
           <t>3515517253</t>
         </is>
       </c>
-      <c r="H621" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:58:07</t>
-        </is>
+      <c r="H621" s="1" t="n">
+        <v>44095.62369212963</v>
       </c>
       <c r="I621" t="n">
         <v>0</v>
@@ -45591,10 +44367,8 @@
           <t>3515509489</t>
         </is>
       </c>
-      <c r="H622" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:57:06</t>
-        </is>
+      <c r="H622" s="1" t="n">
+        <v>44095.62298611111</v>
       </c>
       <c r="I622" t="n">
         <v>1</v>
@@ -45670,10 +44444,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H623" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:55:43</t>
-        </is>
+      <c r="H623" s="1" t="n">
+        <v>44095.62202546297</v>
       </c>
       <c r="I623" t="n">
         <v>3</v>
@@ -45749,10 +44521,8 @@
           <t>3515482969</t>
         </is>
       </c>
-      <c r="H624" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:54:53</t>
-        </is>
+      <c r="H624" s="1" t="n">
+        <v>44095.62144675926</v>
       </c>
       <c r="I624" t="n">
         <v>0</v>
@@ -45820,10 +44590,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H625" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:54:28</t>
-        </is>
+      <c r="H625" s="1" t="n">
+        <v>44095.6211574074</v>
       </c>
       <c r="I625" t="n">
         <v>1</v>
@@ -45887,10 +44655,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H626" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:54:13</t>
-        </is>
+      <c r="H626" s="1" t="n">
+        <v>44095.6209837963</v>
       </c>
       <c r="I626" t="n">
         <v>3</v>
@@ -45967,10 +44733,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H627" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:53:41</t>
-        </is>
+      <c r="H627" s="1" t="n">
+        <v>44095.62061342593</v>
       </c>
       <c r="I627" t="n">
         <v>27</v>
@@ -46038,10 +44802,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H628" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:51:12</t>
-        </is>
+      <c r="H628" s="1" t="n">
+        <v>44095.61888888889</v>
       </c>
       <c r="I628" t="n">
         <v>1</v>
@@ -46117,10 +44879,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H629" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:50:10</t>
-        </is>
+      <c r="H629" s="1" t="n">
+        <v>44095.61817129629</v>
       </c>
       <c r="I629" t="n">
         <v>1</v>
@@ -46184,10 +44944,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H630" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:50:08</t>
-        </is>
+      <c r="H630" s="1" t="n">
+        <v>44095.61814814815</v>
       </c>
       <c r="I630" t="n">
         <v>0</v>
@@ -46247,10 +45005,8 @@
           <t>3515455859</t>
         </is>
       </c>
-      <c r="H631" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:49:04</t>
-        </is>
+      <c r="H631" s="1" t="n">
+        <v>44095.61740740741</v>
       </c>
       <c r="I631" t="n">
         <v>0</v>
@@ -46310,10 +45066,8 @@
           <t>3515455859</t>
         </is>
       </c>
-      <c r="H632" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:46:51</t>
-        </is>
+      <c r="H632" s="1" t="n">
+        <v>44095.61586805555</v>
       </c>
       <c r="I632" t="n">
         <v>1</v>
@@ -46381,10 +45135,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H633" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:46:22</t>
-        </is>
+      <c r="H633" s="1" t="n">
+        <v>44095.61553240741</v>
       </c>
       <c r="I633" t="n">
         <v>0</v>
@@ -46448,10 +45200,8 @@
           <t>3515484205</t>
         </is>
       </c>
-      <c r="H634" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:45:55</t>
-        </is>
+      <c r="H634" s="1" t="n">
+        <v>44095.61521990741</v>
       </c>
       <c r="I634" t="n">
         <v>0</v>
@@ -46523,10 +45273,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H635" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:44:23</t>
-        </is>
+      <c r="H635" s="1" t="n">
+        <v>44095.61415509259</v>
       </c>
       <c r="I635" t="n">
         <v>0</v>
@@ -46594,10 +45342,8 @@
           <t>3515490977</t>
         </is>
       </c>
-      <c r="H636" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:44:05</t>
-        </is>
+      <c r="H636" s="1" t="n">
+        <v>44095.61394675926</v>
       </c>
       <c r="I636" t="n">
         <v>3</v>
@@ -46673,10 +45419,8 @@
           <t>3515455859</t>
         </is>
       </c>
-      <c r="H637" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:43:44</t>
-        </is>
+      <c r="H637" s="1" t="n">
+        <v>44095.6137037037</v>
       </c>
       <c r="I637" t="n">
         <v>1</v>
@@ -46748,10 +45492,8 @@
           <t>3515426634</t>
         </is>
       </c>
-      <c r="H638" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:43:40</t>
-        </is>
+      <c r="H638" s="1" t="n">
+        <v>44095.6136574074</v>
       </c>
       <c r="I638" t="n">
         <v>0</v>
@@ -46819,10 +45561,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H639" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:43:12</t>
-        </is>
+      <c r="H639" s="1" t="n">
+        <v>44095.61333333333</v>
       </c>
       <c r="I639" t="n">
         <v>0</v>
@@ -46894,10 +45634,8 @@
           <t>3515459379</t>
         </is>
       </c>
-      <c r="H640" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:42:34</t>
-        </is>
+      <c r="H640" s="1" t="n">
+        <v>44095.61289351852</v>
       </c>
       <c r="I640" t="n">
         <v>0</v>
@@ -46969,10 +45707,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H641" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:42:11</t>
-        </is>
+      <c r="H641" s="1" t="n">
+        <v>44095.61262731482</v>
       </c>
       <c r="I641" t="n">
         <v>0</v>
@@ -47044,10 +45780,8 @@
           <t>3515484205</t>
         </is>
       </c>
-      <c r="H642" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:41:52</t>
-        </is>
+      <c r="H642" s="1" t="n">
+        <v>44095.61240740741</v>
       </c>
       <c r="I642" t="n">
         <v>0</v>
@@ -47115,10 +45849,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H643" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:40:58</t>
-        </is>
+      <c r="H643" s="1" t="n">
+        <v>44095.61178240741</v>
       </c>
       <c r="I643" t="n">
         <v>0</v>
@@ -47186,10 +45918,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H644" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:40:34</t>
-        </is>
+      <c r="H644" s="1" t="n">
+        <v>44095.61150462963</v>
       </c>
       <c r="I644" t="n">
         <v>0</v>
@@ -47261,10 +45991,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H645" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:40:30</t>
-        </is>
+      <c r="H645" s="1" t="n">
+        <v>44095.61145833333</v>
       </c>
       <c r="I645" t="n">
         <v>15</v>
@@ -47336,10 +46064,8 @@
           <t>3515466229</t>
         </is>
       </c>
-      <c r="H646" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:40:01</t>
-        </is>
+      <c r="H646" s="1" t="n">
+        <v>44095.61112268519</v>
       </c>
       <c r="I646" t="n">
         <v>13</v>
@@ -47411,10 +46137,8 @@
           <t>3515482969</t>
         </is>
       </c>
-      <c r="H647" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:40:00</t>
-        </is>
+      <c r="H647" s="1" t="n">
+        <v>44095.61111111111</v>
       </c>
       <c r="I647" t="n">
         <v>62</v>
@@ -47482,10 +46206,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H648" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:39:48</t>
-        </is>
+      <c r="H648" s="1" t="n">
+        <v>44095.61097222222</v>
       </c>
       <c r="I648" t="n">
         <v>61</v>
@@ -47561,10 +46283,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H649" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:39:10</t>
-        </is>
+      <c r="H649" s="1" t="n">
+        <v>44095.61053240741</v>
       </c>
       <c r="I649" t="n">
         <v>0</v>
@@ -47629,10 +46349,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H650" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:38:44</t>
-        </is>
+      <c r="H650" s="1" t="n">
+        <v>44095.61023148148</v>
       </c>
       <c r="I650" t="n">
         <v>19</v>
@@ -47696,10 +46414,8 @@
           <t>3515481924</t>
         </is>
       </c>
-      <c r="H651" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:38:24</t>
-        </is>
+      <c r="H651" s="1" t="n">
+        <v>44095.61</v>
       </c>
       <c r="I651" t="n">
         <v>2</v>
@@ -47771,10 +46487,8 @@
           <t>3515473859</t>
         </is>
       </c>
-      <c r="H652" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:38:21</t>
-        </is>
+      <c r="H652" s="1" t="n">
+        <v>44095.60996527778</v>
       </c>
       <c r="I652" t="n">
         <v>4</v>
@@ -47838,10 +46552,8 @@
           <t>3515481416</t>
         </is>
       </c>
-      <c r="H653" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:37:39</t>
-        </is>
+      <c r="H653" s="1" t="n">
+        <v>44095.60947916667</v>
       </c>
       <c r="I653" t="n">
         <v>19</v>
@@ -47901,10 +46613,8 @@
           <t>3515473097</t>
         </is>
       </c>
-      <c r="H654" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:37:13</t>
-        </is>
+      <c r="H654" s="1" t="n">
+        <v>44095.60917824074</v>
       </c>
       <c r="I654" t="n">
         <v>1</v>
@@ -47968,10 +46678,8 @@
           <t>3515480812</t>
         </is>
       </c>
-      <c r="H655" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:36:47</t>
-        </is>
+      <c r="H655" s="1" t="n">
+        <v>44095.60887731481</v>
       </c>
       <c r="I655" t="n">
         <v>0</v>
@@ -48039,10 +46747,8 @@
           <t>3515475876</t>
         </is>
       </c>
-      <c r="H656" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:36:23</t>
-        </is>
+      <c r="H656" s="1" t="n">
+        <v>44095.60859953704</v>
       </c>
       <c r="I656" t="n">
         <v>24</v>
@@ -48106,10 +46812,8 @@
           <t>3515458871</t>
         </is>
       </c>
-      <c r="H657" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:35:04</t>
-        </is>
+      <c r="H657" s="1" t="n">
+        <v>44095.60768518518</v>
       </c>
       <c r="I657" t="n">
         <v>0</v>
@@ -48181,10 +46885,8 @@
           <t>3515464750</t>
         </is>
       </c>
-      <c r="H658" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:34:46</t>
-        </is>
+      <c r="H658" s="1" t="n">
+        <v>44095.60747685185</v>
       </c>
       <c r="I658" t="n">
         <v>1</v>
@@ -48260,10 +46962,8 @@
           <t>3515466229</t>
         </is>
       </c>
-      <c r="H659" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:34:44</t>
-        </is>
+      <c r="H659" s="1" t="n">
+        <v>44095.60745370371</v>
       </c>
       <c r="I659" t="n">
         <v>11</v>
@@ -48339,10 +47039,8 @@
           <t>3515468431</t>
         </is>
       </c>
-      <c r="H660" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:33:16</t>
-        </is>
+      <c r="H660" s="1" t="n">
+        <v>44095.60643518518</v>
       </c>
       <c r="I660" t="n">
         <v>0</v>
@@ -48406,10 +47104,8 @@
           <t>3515470289</t>
         </is>
       </c>
-      <c r="H661" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:33:02</t>
-        </is>
+      <c r="H661" s="1" t="n">
+        <v>44095.60627314815</v>
       </c>
       <c r="I661" t="n">
         <v>16</v>
@@ -48485,10 +47181,8 @@
           <t>3515466229</t>
         </is>
       </c>
-      <c r="H662" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:31:49</t>
-        </is>
+      <c r="H662" s="1" t="n">
+        <v>44095.60542824074</v>
       </c>
       <c r="I662" t="n">
         <v>7</v>
@@ -48557,10 +47251,8 @@
           <t>3515459379</t>
         </is>
       </c>
-      <c r="H663" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:31:44</t>
-        </is>
+      <c r="H663" s="1" t="n">
+        <v>44095.60537037037</v>
       </c>
       <c r="I663" t="n">
         <v>6</v>
@@ -48636,10 +47328,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H664" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:31:31</t>
-        </is>
+      <c r="H664" s="1" t="n">
+        <v>44095.6052199074</v>
       </c>
       <c r="I664" t="n">
         <v>3</v>
@@ -48707,10 +47397,8 @@
           <t>3515458871</t>
         </is>
       </c>
-      <c r="H665" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:30:59</t>
-        </is>
+      <c r="H665" s="1" t="n">
+        <v>44095.60484953703</v>
       </c>
       <c r="I665" t="n">
         <v>0</v>
@@ -48778,10 +47466,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H666" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:30:41</t>
-        </is>
+      <c r="H666" s="1" t="n">
+        <v>44095.6046412037</v>
       </c>
       <c r="I666" t="n">
         <v>0</v>
@@ -48853,10 +47539,8 @@
           <t>3515466229</t>
         </is>
       </c>
-      <c r="H667" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:30:01</t>
-        </is>
+      <c r="H667" s="1" t="n">
+        <v>44095.60417824074</v>
       </c>
       <c r="I667" t="n">
         <v>9</v>
@@ -48932,10 +47616,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H668" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:27:48</t>
-        </is>
+      <c r="H668" s="1" t="n">
+        <v>44095.60263888889</v>
       </c>
       <c r="I668" t="n">
         <v>2</v>
@@ -49003,10 +47685,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H669" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:27:34</t>
-        </is>
+      <c r="H669" s="1" t="n">
+        <v>44095.60247685185</v>
       </c>
       <c r="I669" t="n">
         <v>1</v>
@@ -49078,10 +47758,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H670" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:27:18</t>
-        </is>
+      <c r="H670" s="1" t="n">
+        <v>44095.60229166667</v>
       </c>
       <c r="I670" t="n">
         <v>26</v>
@@ -49157,10 +47835,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H671" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:26:49</t>
-        </is>
+      <c r="H671" s="1" t="n">
+        <v>44095.60195601852</v>
       </c>
       <c r="I671" t="n">
         <v>0</v>
@@ -49236,10 +47912,8 @@
           <t>3515455859</t>
         </is>
       </c>
-      <c r="H672" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:26:46</t>
-        </is>
+      <c r="H672" s="1" t="n">
+        <v>44095.60192129629</v>
       </c>
       <c r="I672" t="n">
         <v>2</v>
@@ -49307,10 +47981,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H673" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:26:32</t>
-        </is>
+      <c r="H673" s="1" t="n">
+        <v>44095.60175925926</v>
       </c>
       <c r="I673" t="n">
         <v>0</v>
@@ -49378,10 +48050,8 @@
           <t>3515426634</t>
         </is>
       </c>
-      <c r="H674" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:25:43</t>
-        </is>
+      <c r="H674" s="1" t="n">
+        <v>44095.60119212963</v>
       </c>
       <c r="I674" t="n">
         <v>0</v>
@@ -49453,10 +48123,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H675" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:24:46</t>
-        </is>
+      <c r="H675" s="1" t="n">
+        <v>44095.60053240741</v>
       </c>
       <c r="I675" t="n">
         <v>79</v>
@@ -49532,10 +48200,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H676" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:24:34</t>
-        </is>
+      <c r="H676" s="1" t="n">
+        <v>44095.60039351852</v>
       </c>
       <c r="I676" t="n">
         <v>0</v>
@@ -49611,10 +48277,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H677" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:24:28</t>
-        </is>
+      <c r="H677" s="1" t="n">
+        <v>44095.60032407408</v>
       </c>
       <c r="I677" t="n">
         <v>238</v>
@@ -49682,10 +48346,8 @@
           <t>3515444207</t>
         </is>
       </c>
-      <c r="H678" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:24:28</t>
-        </is>
+      <c r="H678" s="1" t="n">
+        <v>44095.60032407408</v>
       </c>
       <c r="I678" t="n">
         <v>0</v>
@@ -49759,10 +48421,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H679" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:24:26</t>
-        </is>
+      <c r="H679" s="1" t="n">
+        <v>44095.60030092593</v>
       </c>
       <c r="I679" t="n">
         <v>162</v>
@@ -49830,10 +48490,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H680" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:24:19</t>
-        </is>
+      <c r="H680" s="1" t="n">
+        <v>44095.60021990741</v>
       </c>
       <c r="I680" t="n">
         <v>0</v>
@@ -49905,10 +48563,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H681" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:24:14</t>
-        </is>
+      <c r="H681" s="1" t="n">
+        <v>44095.60016203704</v>
       </c>
       <c r="I681" t="n">
         <v>0</v>
@@ -49976,10 +48632,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H682" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:24:03</t>
-        </is>
+      <c r="H682" s="1" t="n">
+        <v>44095.60003472222</v>
       </c>
       <c r="I682" t="n">
         <v>0</v>
@@ -50043,10 +48697,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H683" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:23:40</t>
-        </is>
+      <c r="H683" s="1" t="n">
+        <v>44095.59976851852</v>
       </c>
       <c r="I683" t="n">
         <v>0</v>
@@ -50110,10 +48762,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H684" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:20:22</t>
-        </is>
+      <c r="H684" s="1" t="n">
+        <v>44095.59747685185</v>
       </c>
       <c r="I684" t="n">
         <v>0</v>
@@ -50185,10 +48835,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H685" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:19:48</t>
-        </is>
+      <c r="H685" s="1" t="n">
+        <v>44095.59708333333</v>
       </c>
       <c r="I685" t="n">
         <v>0</v>
@@ -50256,10 +48904,8 @@
           <t>3515426634</t>
         </is>
       </c>
-      <c r="H686" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:19:11</t>
-        </is>
+      <c r="H686" s="1" t="n">
+        <v>44095.5966550926</v>
       </c>
       <c r="I686" t="n">
         <v>0</v>
@@ -50327,10 +48973,8 @@
           <t>3515428795</t>
         </is>
       </c>
-      <c r="H687" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:17:00</t>
-        </is>
+      <c r="H687" s="1" t="n">
+        <v>44095.59513888889</v>
       </c>
       <c r="I687" t="n">
         <v>0</v>
@@ -50402,10 +49046,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H688" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:15:07</t>
-        </is>
+      <c r="H688" s="1" t="n">
+        <v>44095.59383101852</v>
       </c>
       <c r="I688" t="n">
         <v>0</v>
@@ -50481,10 +49123,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H689" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:14:57</t>
-        </is>
+      <c r="H689" s="1" t="n">
+        <v>44095.59371527778</v>
       </c>
       <c r="I689" t="n">
         <v>49</v>
@@ -50564,10 +49204,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H690" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:14:44</t>
-        </is>
+      <c r="H690" s="1" t="n">
+        <v>44095.59356481482</v>
       </c>
       <c r="I690" t="n">
         <v>121</v>
@@ -50643,10 +49281,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H691" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:14:24</t>
-        </is>
+      <c r="H691" s="1" t="n">
+        <v>44095.59333333333</v>
       </c>
       <c r="I691" t="n">
         <v>0</v>
@@ -50710,10 +49346,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H692" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:14:22</t>
-        </is>
+      <c r="H692" s="1" t="n">
+        <v>44095.59331018518</v>
       </c>
       <c r="I692" t="n">
         <v>0</v>
@@ -50789,10 +49423,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H693" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:14:07</t>
-        </is>
+      <c r="H693" s="1" t="n">
+        <v>44095.59313657408</v>
       </c>
       <c r="I693" t="n">
         <v>0</v>
@@ -50860,10 +49492,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H694" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:13:21</t>
-        </is>
+      <c r="H694" s="1" t="n">
+        <v>44095.59260416667</v>
       </c>
       <c r="I694" t="n">
         <v>0</v>
@@ -50927,10 +49557,8 @@
           <t>3515422805</t>
         </is>
       </c>
-      <c r="H695" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:10:28</t>
-        </is>
+      <c r="H695" s="1" t="n">
+        <v>44095.59060185185</v>
       </c>
       <c r="I695" t="n">
         <v>0</v>
@@ -51006,10 +49634,8 @@
           <t>3515413989</t>
         </is>
       </c>
-      <c r="H696" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:09:52</t>
-        </is>
+      <c r="H696" s="1" t="n">
+        <v>44095.59018518519</v>
       </c>
       <c r="I696" t="n">
         <v>0</v>
@@ -51081,10 +49707,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H697" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:08:48</t>
-        </is>
+      <c r="H697" s="1" t="n">
+        <v>44095.58944444444</v>
       </c>
       <c r="I697" t="n">
         <v>1</v>
@@ -51153,10 +49777,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H698" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:08:35</t>
-        </is>
+      <c r="H698" s="1" t="n">
+        <v>44095.58929398148</v>
       </c>
       <c r="I698" t="n">
         <v>0</v>
@@ -51232,10 +49854,8 @@
           <t>3515416265</t>
         </is>
       </c>
-      <c r="H699" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:08:00</t>
-        </is>
+      <c r="H699" s="1" t="n">
+        <v>44095.58888888889</v>
       </c>
       <c r="I699" t="n">
         <v>0</v>
@@ -51303,10 +49923,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H700" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:07:35</t>
-        </is>
+      <c r="H700" s="1" t="n">
+        <v>44095.58859953703</v>
       </c>
       <c r="I700" t="n">
         <v>0</v>
@@ -51378,10 +49996,8 @@
           <t>3515412359</t>
         </is>
       </c>
-      <c r="H701" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:07:28</t>
-        </is>
+      <c r="H701" s="1" t="n">
+        <v>44095.58851851852</v>
       </c>
       <c r="I701" t="n">
         <v>15</v>
@@ -51449,10 +50065,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H702" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:07:18</t>
-        </is>
+      <c r="H702" s="1" t="n">
+        <v>44095.58840277778</v>
       </c>
       <c r="I702" t="n">
         <v>1</v>
@@ -51516,10 +50130,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H703" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:07:07</t>
-        </is>
+      <c r="H703" s="1" t="n">
+        <v>44095.58827546296</v>
       </c>
       <c r="I703" t="n">
         <v>0</v>
@@ -51587,10 +50199,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H704" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:06:57</t>
-        </is>
+      <c r="H704" s="1" t="n">
+        <v>44095.58815972223</v>
       </c>
       <c r="I704" t="n">
         <v>0</v>
@@ -51666,10 +50276,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H705" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:05:45</t>
-        </is>
+      <c r="H705" s="1" t="n">
+        <v>44095.58732638889</v>
       </c>
       <c r="I705" t="n">
         <v>0</v>
@@ -51744,10 +50352,8 @@
           <t>3515409086</t>
         </is>
       </c>
-      <c r="H706" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:05:18</t>
-        </is>
+      <c r="H706" s="1" t="n">
+        <v>44095.58701388889</v>
       </c>
       <c r="I706" t="n">
         <v>0</v>
@@ -51811,10 +50417,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H707" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:05:01</t>
-        </is>
+      <c r="H707" s="1" t="n">
+        <v>44095.58681712963</v>
       </c>
       <c r="I707" t="n">
         <v>0</v>
@@ -51882,10 +50486,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H708" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:04:58</t>
-        </is>
+      <c r="H708" s="1" t="n">
+        <v>44095.58678240741</v>
       </c>
       <c r="I708" t="n">
         <v>0</v>
@@ -51949,10 +50551,8 @@
           <t>3515410269</t>
         </is>
       </c>
-      <c r="H709" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:04:32</t>
-        </is>
+      <c r="H709" s="1" t="n">
+        <v>44095.58648148148</v>
       </c>
       <c r="I709" t="n">
         <v>0</v>
@@ -52028,10 +50628,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H710" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:04:08</t>
-        </is>
+      <c r="H710" s="1" t="n">
+        <v>44095.5862037037</v>
       </c>
       <c r="I710" t="n">
         <v>5</v>
@@ -52103,10 +50701,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H711" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:03:56</t>
-        </is>
+      <c r="H711" s="1" t="n">
+        <v>44095.58606481482</v>
       </c>
       <c r="I711" t="n">
         <v>0</v>
@@ -52174,10 +50770,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H712" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:03:02</t>
-        </is>
+      <c r="H712" s="1" t="n">
+        <v>44095.58543981481</v>
       </c>
       <c r="I712" t="n">
         <v>163</v>
@@ -52254,10 +50848,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H713" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:02:53</t>
-        </is>
+      <c r="H713" s="1" t="n">
+        <v>44095.58533564815</v>
       </c>
       <c r="I713" t="n">
         <v>0</v>
@@ -52325,10 +50917,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H714" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:02:46</t>
-        </is>
+      <c r="H714" s="1" t="n">
+        <v>44095.58525462963</v>
       </c>
       <c r="I714" t="n">
         <v>297</v>
@@ -52407,10 +50997,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H715" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:02:15</t>
-        </is>
+      <c r="H715" s="1" t="n">
+        <v>44095.58489583333</v>
       </c>
       <c r="I715" t="n">
         <v>0</v>
@@ -52486,10 +51074,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H716" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:02:09</t>
-        </is>
+      <c r="H716" s="1" t="n">
+        <v>44095.58482638889</v>
       </c>
       <c r="I716" t="n">
         <v>1</v>
@@ -52565,10 +51151,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H717" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:01:58</t>
-        </is>
+      <c r="H717" s="1" t="n">
+        <v>44095.58469907408</v>
       </c>
       <c r="I717" t="n">
         <v>5</v>
@@ -52632,10 +51216,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H718" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:01:48</t>
-        </is>
+      <c r="H718" s="1" t="n">
+        <v>44095.58458333334</v>
       </c>
       <c r="I718" t="n">
         <v>0</v>
@@ -52711,10 +51293,8 @@
           <t>3515406465</t>
         </is>
       </c>
-      <c r="H719" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:01:40</t>
-        </is>
+      <c r="H719" s="1" t="n">
+        <v>44095.58449074074</v>
       </c>
       <c r="I719" t="n">
         <v>0</v>
@@ -52790,10 +51370,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H720" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:01:36</t>
-        </is>
+      <c r="H720" s="1" t="n">
+        <v>44095.58444444444</v>
       </c>
       <c r="I720" t="n">
         <v>1</v>
@@ -52857,10 +51435,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H721" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:01:18</t>
-        </is>
+      <c r="H721" s="1" t="n">
+        <v>44095.58423611111</v>
       </c>
       <c r="I721" t="n">
         <v>2</v>
@@ -52924,10 +51500,8 @@
           <t>3515401102</t>
         </is>
       </c>
-      <c r="H722" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:00:52</t>
-        </is>
+      <c r="H722" s="1" t="n">
+        <v>44095.58393518518</v>
       </c>
       <c r="I722" t="n">
         <v>0</v>
@@ -53003,10 +51577,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H723" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:00:31</t>
-        </is>
+      <c r="H723" s="1" t="n">
+        <v>44095.58369212963</v>
       </c>
       <c r="I723" t="n">
         <v>0</v>
@@ -53074,10 +51646,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H724" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:00:30</t>
-        </is>
+      <c r="H724" s="1" t="n">
+        <v>44095.58368055556</v>
       </c>
       <c r="I724" t="n">
         <v>9</v>
@@ -53145,10 +51715,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H725" t="inlineStr">
-        <is>
-          <t>2020-09-21 14:00:28</t>
-        </is>
+      <c r="H725" s="1" t="n">
+        <v>44095.58365740741</v>
       </c>
       <c r="I725" t="n">
         <v>0</v>
